--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -6177,28 +6177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11514.5942827835</v>
+        <v>12101.76990835914</v>
       </c>
       <c r="AB2" t="n">
-        <v>15754.77588575305</v>
+        <v>16558.17548102605</v>
       </c>
       <c r="AC2" t="n">
-        <v>14251.16218718302</v>
+        <v>14977.88645266154</v>
       </c>
       <c r="AD2" t="n">
-        <v>11514594.2827835</v>
+        <v>12101769.90835914</v>
       </c>
       <c r="AE2" t="n">
-        <v>15754775.88575305</v>
+        <v>16558175.48102605</v>
       </c>
       <c r="AF2" t="n">
         <v>1.329696454192512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>119</v>
+        <v>118.0416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>14251162.18718302</v>
+        <v>14977886.45266154</v>
       </c>
     </row>
     <row r="3">
@@ -6283,28 +6283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3986.42812547687</v>
+        <v>4299.626640709236</v>
       </c>
       <c r="AB3" t="n">
-        <v>5454.406830074465</v>
+        <v>5882.938855958726</v>
       </c>
       <c r="AC3" t="n">
-        <v>4933.845897520016</v>
+        <v>5321.479428302345</v>
       </c>
       <c r="AD3" t="n">
-        <v>3986428.12547687</v>
+        <v>4299626.640709236</v>
       </c>
       <c r="AE3" t="n">
-        <v>5454406.830074465</v>
+        <v>5882938.855958726</v>
       </c>
       <c r="AF3" t="n">
         <v>2.504952243733769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4933845.897520017</v>
+        <v>5321479.428302345</v>
       </c>
     </row>
     <row r="4">
@@ -6389,28 +6389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3105.911460883915</v>
+        <v>3379.820240389623</v>
       </c>
       <c r="AB4" t="n">
-        <v>4249.645083924663</v>
+        <v>4624.419160046898</v>
       </c>
       <c r="AC4" t="n">
-        <v>3844.064921529068</v>
+        <v>4183.071085824902</v>
       </c>
       <c r="AD4" t="n">
-        <v>3105911.460883915</v>
+        <v>3379820.240389623</v>
       </c>
       <c r="AE4" t="n">
-        <v>4249645.083924662</v>
+        <v>4624419.160046898</v>
       </c>
       <c r="AF4" t="n">
         <v>2.934372628373843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.4875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3844064.921529068</v>
+        <v>4183071.085824902</v>
       </c>
     </row>
     <row r="5">
@@ -6495,28 +6495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2760.058573429704</v>
+        <v>3014.491795621199</v>
       </c>
       <c r="AB5" t="n">
-        <v>3776.433905357239</v>
+        <v>4124.56066476122</v>
       </c>
       <c r="AC5" t="n">
-        <v>3416.016353688077</v>
+        <v>3730.918383773505</v>
       </c>
       <c r="AD5" t="n">
-        <v>2760058.573429704</v>
+        <v>3014491.795621199</v>
       </c>
       <c r="AE5" t="n">
-        <v>3776433.905357239</v>
+        <v>4124560.664761221</v>
       </c>
       <c r="AF5" t="n">
         <v>3.161136726227636e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>3416016.353688077</v>
+        <v>3730918.383773504</v>
       </c>
     </row>
     <row r="6">
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2573.960861675887</v>
+        <v>2818.605562597035</v>
       </c>
       <c r="AB6" t="n">
-        <v>3521.806806084048</v>
+        <v>3856.540478846857</v>
       </c>
       <c r="AC6" t="n">
-        <v>3185.69050739815</v>
+        <v>3488.477668234124</v>
       </c>
       <c r="AD6" t="n">
-        <v>2573960.861675887</v>
+        <v>2818605.562597035</v>
       </c>
       <c r="AE6" t="n">
-        <v>3521806.806084048</v>
+        <v>3856540.478846857</v>
       </c>
       <c r="AF6" t="n">
         <v>3.302016747153416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.53333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3185690.50739815</v>
+        <v>3488477.668234124</v>
       </c>
     </row>
     <row r="7">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2456.137567843699</v>
+        <v>2681.206237254007</v>
       </c>
       <c r="AB7" t="n">
-        <v>3360.595777465971</v>
+        <v>3668.544660282089</v>
       </c>
       <c r="AC7" t="n">
-        <v>3039.865233090289</v>
+        <v>3318.423906739397</v>
       </c>
       <c r="AD7" t="n">
-        <v>2456137.567843699</v>
+        <v>2681206.237254007</v>
       </c>
       <c r="AE7" t="n">
-        <v>3360595.777465971</v>
+        <v>3668544.660282089</v>
       </c>
       <c r="AF7" t="n">
         <v>3.399578045067257e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.17083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3039865.233090289</v>
+        <v>3318423.906739397</v>
       </c>
     </row>
     <row r="8">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2371.51566790187</v>
+        <v>2596.550171893397</v>
       </c>
       <c r="AB8" t="n">
-        <v>3244.812360710809</v>
+        <v>3552.714496893679</v>
       </c>
       <c r="AC8" t="n">
-        <v>2935.132023127197</v>
+        <v>3213.648411576125</v>
       </c>
       <c r="AD8" t="n">
-        <v>2371515.66790187</v>
+        <v>2596550.171893397</v>
       </c>
       <c r="AE8" t="n">
-        <v>3244812.360710809</v>
+        <v>3552714.496893679</v>
       </c>
       <c r="AF8" t="n">
         <v>3.468134632790497e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.25833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2935132.023127197</v>
+        <v>3213648.411576125</v>
       </c>
     </row>
     <row r="9">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2304.489702003812</v>
+        <v>2529.591525803044</v>
       </c>
       <c r="AB9" t="n">
-        <v>3153.104477192159</v>
+        <v>3461.098723305871</v>
       </c>
       <c r="AC9" t="n">
-        <v>2852.176611298748</v>
+        <v>3130.776318835995</v>
       </c>
       <c r="AD9" t="n">
-        <v>2304489.702003812</v>
+        <v>2529591.525803044</v>
       </c>
       <c r="AE9" t="n">
-        <v>3153104.477192159</v>
+        <v>3461098.723305871</v>
       </c>
       <c r="AF9" t="n">
         <v>3.520870469500682e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.575</v>
       </c>
       <c r="AH9" t="n">
-        <v>2852176.611298748</v>
+        <v>3130776.318835995</v>
       </c>
     </row>
     <row r="10">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2256.406597544883</v>
+        <v>2471.686745684842</v>
       </c>
       <c r="AB10" t="n">
-        <v>3087.315052394591</v>
+        <v>3381.870848569537</v>
       </c>
       <c r="AC10" t="n">
-        <v>2792.666036867824</v>
+        <v>3059.109841267479</v>
       </c>
       <c r="AD10" t="n">
-        <v>2256406.597544882</v>
+        <v>2471686.745684842</v>
       </c>
       <c r="AE10" t="n">
-        <v>3087315.05239459</v>
+        <v>3381870.848569537</v>
       </c>
       <c r="AF10" t="n">
         <v>3.564565877060549e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.02916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2792666.036867824</v>
+        <v>3059109.841267479</v>
       </c>
     </row>
     <row r="11">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2200.681748815868</v>
+        <v>2416.029216763532</v>
       </c>
       <c r="AB11" t="n">
-        <v>3011.069855956729</v>
+        <v>3305.717762062516</v>
       </c>
       <c r="AC11" t="n">
-        <v>2723.697574967189</v>
+        <v>2990.224698455163</v>
       </c>
       <c r="AD11" t="n">
-        <v>2200681.748815868</v>
+        <v>2416029.216763532</v>
       </c>
       <c r="AE11" t="n">
-        <v>3011069.855956729</v>
+        <v>3305717.762062516</v>
       </c>
       <c r="AF11" t="n">
         <v>3.603741070045257e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.55416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2723697.574967189</v>
+        <v>2990224.698455163</v>
       </c>
     </row>
     <row r="12">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2196.240447224819</v>
+        <v>2411.587915172483</v>
       </c>
       <c r="AB12" t="n">
-        <v>3004.993071183455</v>
+        <v>3299.640977289243</v>
       </c>
       <c r="AC12" t="n">
-        <v>2718.200750003857</v>
+        <v>2984.727873491831</v>
       </c>
       <c r="AD12" t="n">
-        <v>2196240.447224819</v>
+        <v>2411587.915172482</v>
       </c>
       <c r="AE12" t="n">
-        <v>3004993.071183455</v>
+        <v>3299640.977289244</v>
       </c>
       <c r="AF12" t="n">
         <v>3.604494439141117e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.54583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2718200.750003857</v>
+        <v>2984727.873491831</v>
       </c>
     </row>
     <row r="13">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2148.532988646303</v>
+        <v>2363.778971367484</v>
       </c>
       <c r="AB13" t="n">
-        <v>2939.717621651629</v>
+        <v>3234.226671193499</v>
       </c>
       <c r="AC13" t="n">
-        <v>2659.155097760792</v>
+        <v>2925.556616960312</v>
       </c>
       <c r="AD13" t="n">
-        <v>2148532.988646303</v>
+        <v>2363778.971367484</v>
       </c>
       <c r="AE13" t="n">
-        <v>2939717.621651629</v>
+        <v>3234226.6711935</v>
       </c>
       <c r="AF13" t="n">
         <v>3.644799685769616e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.0625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2659155.097760792</v>
+        <v>2925556.616960312</v>
       </c>
     </row>
     <row r="14">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2112.289646543429</v>
+        <v>2327.602949072314</v>
       </c>
       <c r="AB14" t="n">
-        <v>2890.127882043071</v>
+        <v>3184.729041515779</v>
       </c>
       <c r="AC14" t="n">
-        <v>2614.298133300838</v>
+        <v>2880.782971588676</v>
       </c>
       <c r="AD14" t="n">
-        <v>2112289.646543429</v>
+        <v>2327602.949072314</v>
       </c>
       <c r="AE14" t="n">
-        <v>2890127.882043071</v>
+        <v>3184729.04151578</v>
       </c>
       <c r="AF14" t="n">
         <v>3.66363391316611e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.84166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2614298.133300839</v>
+        <v>2880782.971588676</v>
       </c>
     </row>
     <row r="15">
@@ -7555,28 +7555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2086.231088348814</v>
+        <v>2301.544390877699</v>
       </c>
       <c r="AB15" t="n">
-        <v>2854.473413098747</v>
+        <v>3149.074572571454</v>
       </c>
       <c r="AC15" t="n">
-        <v>2582.046476831199</v>
+        <v>2848.531315119037</v>
       </c>
       <c r="AD15" t="n">
-        <v>2086231.088348814</v>
+        <v>2301544.390877699</v>
       </c>
       <c r="AE15" t="n">
-        <v>2854473.413098747</v>
+        <v>3149074.572571454</v>
       </c>
       <c r="AF15" t="n">
         <v>3.682468140562605e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.62083333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2582046.476831199</v>
+        <v>2848531.315119036</v>
       </c>
     </row>
     <row r="16">
@@ -7661,28 +7661,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2062.02816348878</v>
+        <v>2277.23998079118</v>
       </c>
       <c r="AB16" t="n">
-        <v>2821.357903547562</v>
+        <v>3115.820206456178</v>
       </c>
       <c r="AC16" t="n">
-        <v>2552.09146503367</v>
+        <v>2818.450699033008</v>
       </c>
       <c r="AD16" t="n">
-        <v>2062028.16348878</v>
+        <v>2277239.98079118</v>
       </c>
       <c r="AE16" t="n">
-        <v>2821357.903547562</v>
+        <v>3115820.206456178</v>
       </c>
       <c r="AF16" t="n">
         <v>3.69866557612359e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.4375</v>
       </c>
       <c r="AH16" t="n">
-        <v>2552091.46503367</v>
+        <v>2818450.699033008</v>
       </c>
     </row>
     <row r="17">
@@ -7767,28 +7767,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2037.386533556869</v>
+        <v>2252.598350859269</v>
       </c>
       <c r="AB17" t="n">
-        <v>2787.642138362734</v>
+        <v>3082.104441271347</v>
       </c>
       <c r="AC17" t="n">
-        <v>2521.593485157708</v>
+        <v>2787.952719157046</v>
       </c>
       <c r="AD17" t="n">
-        <v>2037386.533556869</v>
+        <v>2252598.350859269</v>
       </c>
       <c r="AE17" t="n">
-        <v>2787642.138362735</v>
+        <v>3082104.441271347</v>
       </c>
       <c r="AF17" t="n">
         <v>3.710719481657346e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.29583333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2521593.485157708</v>
+        <v>2787952.719157046</v>
       </c>
     </row>
     <row r="18">
@@ -7873,28 +7873,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2018.486938117636</v>
+        <v>2223.97856498725</v>
       </c>
       <c r="AB18" t="n">
-        <v>2761.782878091471</v>
+        <v>3042.945587625406</v>
       </c>
       <c r="AC18" t="n">
-        <v>2498.202196393035</v>
+        <v>2752.531131543279</v>
       </c>
       <c r="AD18" t="n">
-        <v>2018486.938117636</v>
+        <v>2223978.56498725</v>
       </c>
       <c r="AE18" t="n">
-        <v>2761782.878091471</v>
+        <v>3042945.587625407</v>
       </c>
       <c r="AF18" t="n">
         <v>3.724656809930752e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.14166666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2498202.196393035</v>
+        <v>2752531.131543279</v>
       </c>
     </row>
     <row r="19">
@@ -7979,28 +7979,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1995.246234105454</v>
+        <v>2200.737860975067</v>
       </c>
       <c r="AB19" t="n">
-        <v>2729.983921554504</v>
+        <v>3011.146631088438</v>
       </c>
       <c r="AC19" t="n">
-        <v>2469.43808763784</v>
+        <v>2723.767022788084</v>
       </c>
       <c r="AD19" t="n">
-        <v>1995246.234105454</v>
+        <v>2200737.860975067</v>
       </c>
       <c r="AE19" t="n">
-        <v>2729983.921554504</v>
+        <v>3011146.631088438</v>
       </c>
       <c r="AF19" t="n">
         <v>3.73332055453314e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.0375</v>
       </c>
       <c r="AH19" t="n">
-        <v>2469438.08763784</v>
+        <v>2723767.022788084</v>
       </c>
     </row>
     <row r="20">
@@ -8085,28 +8085,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1967.99307085107</v>
+        <v>2183.272207961172</v>
       </c>
       <c r="AB20" t="n">
-        <v>2692.694941265149</v>
+        <v>2987.249354104425</v>
       </c>
       <c r="AC20" t="n">
-        <v>2435.707915291889</v>
+        <v>2702.150468379498</v>
       </c>
       <c r="AD20" t="n">
-        <v>1967993.07085107</v>
+        <v>2183272.207961172</v>
       </c>
       <c r="AE20" t="n">
-        <v>2692694.94126515</v>
+        <v>2987249.354104424</v>
       </c>
       <c r="AF20" t="n">
         <v>3.742360983683457e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>42</v>
+        <v>41.94166666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>2435707.915291889</v>
+        <v>2702150.468379498</v>
       </c>
     </row>
     <row r="21">
@@ -8191,28 +8191,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1946.358758251587</v>
+        <v>2161.637895361689</v>
       </c>
       <c r="AB21" t="n">
-        <v>2663.093920328026</v>
+        <v>2957.6483331673</v>
       </c>
       <c r="AC21" t="n">
-        <v>2408.931974247711</v>
+        <v>2675.37452733532</v>
       </c>
       <c r="AD21" t="n">
-        <v>1946358.758251587</v>
+        <v>2161637.895361689</v>
       </c>
       <c r="AE21" t="n">
-        <v>2663093.920328026</v>
+        <v>2957648.3331673</v>
       </c>
       <c r="AF21" t="n">
         <v>3.751401412833775e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>42</v>
+        <v>41.8375</v>
       </c>
       <c r="AH21" t="n">
-        <v>2408931.974247711</v>
+        <v>2675374.52733532</v>
       </c>
     </row>
     <row r="22">
@@ -8297,28 +8297,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1934.111834100799</v>
+        <v>2149.390971210901</v>
       </c>
       <c r="AB22" t="n">
-        <v>2646.337138408756</v>
+        <v>2940.891551248031</v>
       </c>
       <c r="AC22" t="n">
-        <v>2393.774436076525</v>
+        <v>2660.216989164135</v>
       </c>
       <c r="AD22" t="n">
-        <v>1934111.834100799</v>
+        <v>2149390.971210901</v>
       </c>
       <c r="AE22" t="n">
-        <v>2646337.138408756</v>
+        <v>2940891.551248031</v>
       </c>
       <c r="AF22" t="n">
         <v>3.757428365600653e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>42</v>
+        <v>41.77083333333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>2393774.436076525</v>
+        <v>2660216.989164134</v>
       </c>
     </row>
     <row r="23">
@@ -8403,28 +8403,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1928.171991185192</v>
+        <v>2143.451128295294</v>
       </c>
       <c r="AB23" t="n">
-        <v>2638.209983284248</v>
+        <v>2932.764396123523</v>
       </c>
       <c r="AC23" t="n">
-        <v>2386.422925230566</v>
+        <v>2652.865478318176</v>
       </c>
       <c r="AD23" t="n">
-        <v>1928171.991185192</v>
+        <v>2143451.128295294</v>
       </c>
       <c r="AE23" t="n">
-        <v>2638209.983284248</v>
+        <v>2932764.396123522</v>
       </c>
       <c r="AF23" t="n">
         <v>3.760065157436162e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>42</v>
+        <v>41.74166666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>2386422.925230566</v>
+        <v>2652865.478318175</v>
       </c>
     </row>
     <row r="24">
@@ -8509,28 +8509,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1933.904933461966</v>
+        <v>2149.184070572068</v>
       </c>
       <c r="AB24" t="n">
-        <v>2646.054047826894</v>
+        <v>2940.608460666168</v>
       </c>
       <c r="AC24" t="n">
-        <v>2393.518363262475</v>
+        <v>2659.960916350085</v>
       </c>
       <c r="AD24" t="n">
-        <v>1933904.933461966</v>
+        <v>2149184.070572068</v>
       </c>
       <c r="AE24" t="n">
-        <v>2646054.047826894</v>
+        <v>2940608.460666168</v>
       </c>
       <c r="AF24" t="n">
         <v>3.758935103792372e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>42</v>
+        <v>41.75416666666666</v>
       </c>
       <c r="AH24" t="n">
-        <v>2393518.363262475</v>
+        <v>2659960.916350084</v>
       </c>
     </row>
     <row r="25">
@@ -8615,28 +8615,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1940.239447650714</v>
+        <v>2155.518584760816</v>
       </c>
       <c r="AB25" t="n">
-        <v>2654.721209598981</v>
+        <v>2949.275622438256</v>
       </c>
       <c r="AC25" t="n">
-        <v>2401.358343279473</v>
+        <v>2667.800896367082</v>
       </c>
       <c r="AD25" t="n">
-        <v>1940239.447650714</v>
+        <v>2155518.584760816</v>
       </c>
       <c r="AE25" t="n">
-        <v>2654721.209598981</v>
+        <v>2949275.622438256</v>
       </c>
       <c r="AF25" t="n">
         <v>3.758935103792372e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>42</v>
+        <v>41.75416666666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>2401358.343279473</v>
+        <v>2667800.896367082</v>
       </c>
     </row>
   </sheetData>
@@ -8912,28 +8912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7063.093072735537</v>
+        <v>7527.656935684385</v>
       </c>
       <c r="AB2" t="n">
-        <v>9664.035543791941</v>
+        <v>10299.67231618975</v>
       </c>
       <c r="AC2" t="n">
-        <v>8741.713555051147</v>
+        <v>9316.686046013097</v>
       </c>
       <c r="AD2" t="n">
-        <v>7063093.072735537</v>
+        <v>7527656.935684385</v>
       </c>
       <c r="AE2" t="n">
-        <v>9664035.54379194</v>
+        <v>10299672.31618975</v>
       </c>
       <c r="AF2" t="n">
         <v>1.851432793924506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>93</v>
+        <v>92.76666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>8741713.555051146</v>
+        <v>9316686.046013098</v>
       </c>
     </row>
     <row r="3">
@@ -9018,28 +9018,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3192.582187641982</v>
+        <v>3482.82884608118</v>
       </c>
       <c r="AB3" t="n">
-        <v>4368.231795917662</v>
+        <v>4765.360078773047</v>
       </c>
       <c r="AC3" t="n">
-        <v>3951.333884166946</v>
+        <v>4310.560801079646</v>
       </c>
       <c r="AD3" t="n">
-        <v>3192582.187641982</v>
+        <v>3482828.84608118</v>
       </c>
       <c r="AE3" t="n">
-        <v>4368231.795917662</v>
+        <v>4765360.078773048</v>
       </c>
       <c r="AF3" t="n">
         <v>2.989000583602073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.45416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3951333.884166946</v>
+        <v>4310560.801079646</v>
       </c>
     </row>
     <row r="4">
@@ -9124,28 +9124,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2595.10353357608</v>
+        <v>2846.76364606011</v>
       </c>
       <c r="AB4" t="n">
-        <v>3550.735142526747</v>
+        <v>3895.067610888008</v>
       </c>
       <c r="AC4" t="n">
-        <v>3211.857964011932</v>
+        <v>3523.327824866436</v>
       </c>
       <c r="AD4" t="n">
-        <v>2595103.53357608</v>
+        <v>2846763.64606011</v>
       </c>
       <c r="AE4" t="n">
-        <v>3550735.142526748</v>
+        <v>3895067.610888008</v>
       </c>
       <c r="AF4" t="n">
         <v>3.398689852783053e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.52500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>3211857.964011932</v>
+        <v>3523327.824866436</v>
       </c>
     </row>
     <row r="5">
@@ -9230,28 +9230,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2348.451877219253</v>
+        <v>2590.397275134395</v>
       </c>
       <c r="AB5" t="n">
-        <v>3213.255464796217</v>
+        <v>3544.295832101364</v>
       </c>
       <c r="AC5" t="n">
-        <v>2906.586873068314</v>
+        <v>3206.033212335919</v>
       </c>
       <c r="AD5" t="n">
-        <v>2348451.877219253</v>
+        <v>2590397.275134395</v>
       </c>
       <c r="AE5" t="n">
-        <v>3213255.464796217</v>
+        <v>3544295.832101364</v>
       </c>
       <c r="AF5" t="n">
         <v>3.611365569983642e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.55416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2906586.873068314</v>
+        <v>3206033.212335919</v>
       </c>
     </row>
     <row r="6">
@@ -9336,28 +9336,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2203.822370851942</v>
+        <v>2436.087219616976</v>
       </c>
       <c r="AB6" t="n">
-        <v>3015.36699358095</v>
+        <v>3333.162006463232</v>
       </c>
       <c r="AC6" t="n">
-        <v>2727.584599807626</v>
+        <v>3015.049702688512</v>
       </c>
       <c r="AD6" t="n">
-        <v>2203822.370851942</v>
+        <v>2436087.219616976</v>
       </c>
       <c r="AE6" t="n">
-        <v>3015366.99358095</v>
+        <v>3333162.006463232</v>
       </c>
       <c r="AF6" t="n">
         <v>3.743669649870055e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.87083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2727584.599807626</v>
+        <v>3015049.702688512</v>
       </c>
     </row>
     <row r="7">
@@ -9442,28 +9442,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2112.814938706215</v>
+        <v>2335.433403739924</v>
       </c>
       <c r="AB7" t="n">
-        <v>2890.84660995445</v>
+        <v>3195.443015047282</v>
       </c>
       <c r="AC7" t="n">
-        <v>2614.948266829096</v>
+        <v>2890.474418523488</v>
       </c>
       <c r="AD7" t="n">
-        <v>2112814.938706215</v>
+        <v>2335433.403739924</v>
       </c>
       <c r="AE7" t="n">
-        <v>2890846.60995445</v>
+        <v>3195443.015047282</v>
       </c>
       <c r="AF7" t="n">
         <v>3.831460207551693e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.82083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2614948.266829096</v>
+        <v>2890474.418523488</v>
       </c>
     </row>
     <row r="8">
@@ -9548,28 +9548,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2049.90607982417</v>
+        <v>2262.810841318847</v>
       </c>
       <c r="AB8" t="n">
-        <v>2804.771933889056</v>
+        <v>3096.077621261424</v>
       </c>
       <c r="AC8" t="n">
-        <v>2537.088437040817</v>
+        <v>2800.592318460349</v>
       </c>
       <c r="AD8" t="n">
-        <v>2049906.07982417</v>
+        <v>2262810.841318847</v>
       </c>
       <c r="AE8" t="n">
-        <v>2804771.933889056</v>
+        <v>3096077.621261424</v>
       </c>
       <c r="AF8" t="n">
         <v>3.897818328616218e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.05833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2537088.437040817</v>
+        <v>2800592.318460349</v>
       </c>
     </row>
     <row r="9">
@@ -9654,28 +9654,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1988.206454071235</v>
+        <v>2201.077050147131</v>
       </c>
       <c r="AB9" t="n">
-        <v>2720.351783938509</v>
+        <v>3011.610724677625</v>
       </c>
       <c r="AC9" t="n">
-        <v>2460.725227717127</v>
+        <v>2724.186823936478</v>
       </c>
       <c r="AD9" t="n">
-        <v>1988206.454071235</v>
+        <v>2201077.050147131</v>
       </c>
       <c r="AE9" t="n">
-        <v>2720351.783938509</v>
+        <v>3011610.724677625</v>
       </c>
       <c r="AF9" t="n">
         <v>3.949750771188455e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.47916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2460725.227717127</v>
+        <v>2724186.823936478</v>
       </c>
     </row>
     <row r="10">
@@ -9760,28 +9760,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1929.060085523457</v>
+        <v>2151.610219719601</v>
       </c>
       <c r="AB10" t="n">
-        <v>2639.42511313782</v>
+        <v>2943.928024963969</v>
       </c>
       <c r="AC10" t="n">
-        <v>2387.522084796358</v>
+        <v>2662.963666090341</v>
       </c>
       <c r="AD10" t="n">
-        <v>1929060.085523457</v>
+        <v>2151610.219719601</v>
       </c>
       <c r="AE10" t="n">
-        <v>2639425.11313782</v>
+        <v>2943928.024963969</v>
       </c>
       <c r="AF10" t="n">
         <v>3.998798078062234e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.94583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2387522.084796358</v>
+        <v>2662963.666090341</v>
       </c>
     </row>
     <row r="11">
@@ -9866,28 +9866,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1909.387354349909</v>
+        <v>2122.325270233507</v>
       </c>
       <c r="AB11" t="n">
-        <v>2612.508014446525</v>
+        <v>2903.859065116306</v>
       </c>
       <c r="AC11" t="n">
-        <v>2363.173916225776</v>
+        <v>2626.7188315334</v>
       </c>
       <c r="AD11" t="n">
-        <v>1909387.354349909</v>
+        <v>2122325.270233507</v>
       </c>
       <c r="AE11" t="n">
-        <v>2612508.014446525</v>
+        <v>2903859.065116306</v>
       </c>
       <c r="AF11" t="n">
         <v>4.007865647400243e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.84583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2363173.916225776</v>
+        <v>2626718.8315334</v>
       </c>
     </row>
     <row r="12">
@@ -9972,28 +9972,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1874.296970178808</v>
+        <v>2087.234886062406</v>
       </c>
       <c r="AB12" t="n">
-        <v>2564.495802745133</v>
+        <v>2855.846853414914</v>
       </c>
       <c r="AC12" t="n">
-        <v>2319.743922623602</v>
+        <v>2583.288837931226</v>
       </c>
       <c r="AD12" t="n">
-        <v>1874296.970178808</v>
+        <v>2087234.886062406</v>
       </c>
       <c r="AE12" t="n">
-        <v>2564495.802745133</v>
+        <v>2855846.853414914</v>
       </c>
       <c r="AF12" t="n">
         <v>4.037541328870093e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.5375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2319743.922623602</v>
+        <v>2583288.837931226</v>
       </c>
     </row>
     <row r="13">
@@ -10078,28 +10078,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1841.508190962487</v>
+        <v>2054.344621619599</v>
       </c>
       <c r="AB13" t="n">
-        <v>2519.632748482515</v>
+        <v>2810.844942588206</v>
       </c>
       <c r="AC13" t="n">
-        <v>2279.162535294116</v>
+        <v>2542.581846313241</v>
       </c>
       <c r="AD13" t="n">
-        <v>1841508.190962487</v>
+        <v>2054344.621619599</v>
       </c>
       <c r="AE13" t="n">
-        <v>2519632.748482515</v>
+        <v>2810844.942588206</v>
       </c>
       <c r="AF13" t="n">
         <v>4.060210252215117e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="AH13" t="n">
-        <v>2279162.535294116</v>
+        <v>2542581.846313241</v>
       </c>
     </row>
     <row r="14">
@@ -10184,28 +10184,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1808.155224337727</v>
+        <v>2011.379436682293</v>
       </c>
       <c r="AB14" t="n">
-        <v>2473.997748117479</v>
+        <v>2752.058081066801</v>
       </c>
       <c r="AC14" t="n">
-        <v>2237.882875314794</v>
+        <v>2489.405520347561</v>
       </c>
       <c r="AD14" t="n">
-        <v>1808155.224337727</v>
+        <v>2011379.436682293</v>
       </c>
       <c r="AE14" t="n">
-        <v>2473997.748117479</v>
+        <v>2752058.081066801</v>
       </c>
       <c r="AF14" t="n">
         <v>4.080818364346957e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.08333333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>2237882.875314794</v>
+        <v>2489405.520347561</v>
       </c>
     </row>
     <row r="15">
@@ -10290,28 +10290,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1773.933386199855</v>
+        <v>1986.837136664672</v>
       </c>
       <c r="AB15" t="n">
-        <v>2427.173919416297</v>
+        <v>2718.47822345283</v>
       </c>
       <c r="AC15" t="n">
-        <v>2195.527847107197</v>
+        <v>2459.030477214641</v>
       </c>
       <c r="AD15" t="n">
-        <v>1773933.386199855</v>
+        <v>1986837.136664672</v>
       </c>
       <c r="AE15" t="n">
-        <v>2427173.919416297</v>
+        <v>2718478.22345283</v>
       </c>
       <c r="AF15" t="n">
         <v>4.093183231626061e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>42</v>
+        <v>41.95833333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2195527.847107197</v>
+        <v>2459030.477214641</v>
       </c>
     </row>
     <row r="16">
@@ -10396,28 +10396,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1761.015469521331</v>
+        <v>1973.919219986148</v>
       </c>
       <c r="AB16" t="n">
-        <v>2409.499055918478</v>
+        <v>2700.803359955011</v>
       </c>
       <c r="AC16" t="n">
-        <v>2179.539847774782</v>
+        <v>2443.042477882227</v>
       </c>
       <c r="AD16" t="n">
-        <v>1761015.469521331</v>
+        <v>1973919.219986148</v>
       </c>
       <c r="AE16" t="n">
-        <v>2409499.055918478</v>
+        <v>2700803.359955011</v>
       </c>
       <c r="AF16" t="n">
         <v>4.100602151993523e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>42</v>
+        <v>41.87916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2179539.847774782</v>
+        <v>2443042.477882227</v>
       </c>
     </row>
     <row r="17">
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1763.931815095545</v>
+        <v>1976.835565560362</v>
       </c>
       <c r="AB17" t="n">
-        <v>2413.489328593204</v>
+        <v>2704.793632629737</v>
       </c>
       <c r="AC17" t="n">
-        <v>2183.149294425816</v>
+        <v>2446.65192453326</v>
       </c>
       <c r="AD17" t="n">
-        <v>1763931.815095545</v>
+        <v>1976835.565560362</v>
       </c>
       <c r="AE17" t="n">
-        <v>2413489.328593204</v>
+        <v>2704793.632629737</v>
       </c>
       <c r="AF17" t="n">
         <v>4.10101431423616e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>42</v>
+        <v>41.875</v>
       </c>
       <c r="AH17" t="n">
-        <v>2183149.294425816</v>
+        <v>2446651.92453326</v>
       </c>
     </row>
     <row r="18">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1768.993979703701</v>
+        <v>1981.897730168518</v>
       </c>
       <c r="AB18" t="n">
-        <v>2420.415605537024</v>
+        <v>2711.719909573557</v>
       </c>
       <c r="AC18" t="n">
-        <v>2189.414537219208</v>
+        <v>2452.917167326652</v>
       </c>
       <c r="AD18" t="n">
-        <v>1768993.979703701</v>
+        <v>1981897.730168518</v>
       </c>
       <c r="AE18" t="n">
-        <v>2420415.605537024</v>
+        <v>2711719.909573557</v>
       </c>
       <c r="AF18" t="n">
         <v>4.10225080096407e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>42</v>
+        <v>41.8625</v>
       </c>
       <c r="AH18" t="n">
-        <v>2189414.537219208</v>
+        <v>2452917.167326652</v>
       </c>
     </row>
   </sheetData>
@@ -10905,28 +10905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2506.10212900959</v>
+        <v>2786.665095974902</v>
       </c>
       <c r="AB2" t="n">
-        <v>3428.959494334017</v>
+        <v>3812.838123300515</v>
       </c>
       <c r="AC2" t="n">
-        <v>3101.704412769525</v>
+        <v>3448.946204164486</v>
       </c>
       <c r="AD2" t="n">
-        <v>2506102.12900959</v>
+        <v>2786665.095974902</v>
       </c>
       <c r="AE2" t="n">
-        <v>3428959.494334017</v>
+        <v>3812838.123300515</v>
       </c>
       <c r="AF2" t="n">
         <v>4.037954431044139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.35833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3101704.412769525</v>
+        <v>3448946.204164485</v>
       </c>
     </row>
     <row r="3">
@@ -11011,28 +11011,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1716.226881191308</v>
+        <v>1950.045593846909</v>
       </c>
       <c r="AB3" t="n">
-        <v>2348.217333432278</v>
+        <v>2668.138411441253</v>
       </c>
       <c r="AC3" t="n">
-        <v>2124.106766873228</v>
+        <v>2413.495026209079</v>
       </c>
       <c r="AD3" t="n">
-        <v>1716226.881191308</v>
+        <v>1950045.593846909</v>
       </c>
       <c r="AE3" t="n">
-        <v>2348217.333432278</v>
+        <v>2668138.411441253</v>
       </c>
       <c r="AF3" t="n">
         <v>5.035505789276156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.60416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2124106.766873227</v>
+        <v>2413495.026209079</v>
       </c>
     </row>
     <row r="4">
@@ -11117,28 +11117,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1511.352700632494</v>
+        <v>1726.494615227423</v>
       </c>
       <c r="AB4" t="n">
-        <v>2067.899441180761</v>
+        <v>2362.266100120946</v>
       </c>
       <c r="AC4" t="n">
-        <v>1870.542020829562</v>
+        <v>2136.814738986697</v>
       </c>
       <c r="AD4" t="n">
-        <v>1511352.700632494</v>
+        <v>1726494.615227423</v>
       </c>
       <c r="AE4" t="n">
-        <v>2067899.441180761</v>
+        <v>2362266.100120946</v>
       </c>
       <c r="AF4" t="n">
         <v>5.374926378293972e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>1870542.020829563</v>
+        <v>2136814.738986697</v>
       </c>
     </row>
     <row r="5">
@@ -11223,28 +11223,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1401.632012701968</v>
+        <v>1607.351125749466</v>
       </c>
       <c r="AB5" t="n">
-        <v>1917.774755419092</v>
+        <v>2199.248721577417</v>
       </c>
       <c r="AC5" t="n">
-        <v>1734.745024375668</v>
+        <v>1989.355510255034</v>
       </c>
       <c r="AD5" t="n">
-        <v>1401632.012701967</v>
+        <v>1607351.125749466</v>
       </c>
       <c r="AE5" t="n">
-        <v>1917774.755419092</v>
+        <v>2199248.721577417</v>
       </c>
       <c r="AF5" t="n">
         <v>5.546362540204664e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.22083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1734745.024375668</v>
+        <v>1989355.510255035</v>
       </c>
     </row>
     <row r="6">
@@ -11329,28 +11329,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1369.085182498907</v>
+        <v>1574.87161535411</v>
       </c>
       <c r="AB6" t="n">
-        <v>1873.242746470455</v>
+        <v>2154.808822559621</v>
       </c>
       <c r="AC6" t="n">
-        <v>1694.463087860021</v>
+        <v>1949.156892827707</v>
       </c>
       <c r="AD6" t="n">
-        <v>1369085.182498907</v>
+        <v>1574871.61535411</v>
       </c>
       <c r="AE6" t="n">
-        <v>1873242.746470455</v>
+        <v>2154808.822559621</v>
       </c>
       <c r="AF6" t="n">
         <v>5.588358646981445e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.89166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1694463.087860021</v>
+        <v>1949156.892827707</v>
       </c>
     </row>
     <row r="7">
@@ -11435,28 +11435,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1376.120403816964</v>
+        <v>1581.906836672166</v>
       </c>
       <c r="AB7" t="n">
-        <v>1882.868646649879</v>
+        <v>2164.434722739045</v>
       </c>
       <c r="AC7" t="n">
-        <v>1703.170305636357</v>
+        <v>1957.864110604043</v>
       </c>
       <c r="AD7" t="n">
-        <v>1376120.403816964</v>
+        <v>1581906.836672166</v>
       </c>
       <c r="AE7" t="n">
-        <v>1882868.646649879</v>
+        <v>2164434.722739045</v>
       </c>
       <c r="AF7" t="n">
         <v>5.588933936115374e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.89166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1703170.305636357</v>
+        <v>1957864.110604043</v>
       </c>
     </row>
   </sheetData>
@@ -11732,28 +11732,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3606.597289296763</v>
+        <v>3938.351593148259</v>
       </c>
       <c r="AB2" t="n">
-        <v>4934.705523058968</v>
+        <v>5388.626397555541</v>
       </c>
       <c r="AC2" t="n">
-        <v>4463.744153840734</v>
+        <v>4874.343457157286</v>
       </c>
       <c r="AD2" t="n">
-        <v>3606597.289296763</v>
+        <v>3938351.593148259</v>
       </c>
       <c r="AE2" t="n">
-        <v>4934705.523058968</v>
+        <v>5388626.397555541</v>
       </c>
       <c r="AF2" t="n">
         <v>3.032543068451464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.44583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4463744.153840734</v>
+        <v>4874343.457157286</v>
       </c>
     </row>
     <row r="3">
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2185.164792744109</v>
+        <v>2431.677450665782</v>
       </c>
       <c r="AB3" t="n">
-        <v>2989.838872099387</v>
+        <v>3327.128366038934</v>
       </c>
       <c r="AC3" t="n">
-        <v>2704.492846411433</v>
+        <v>3009.591904438042</v>
       </c>
       <c r="AD3" t="n">
-        <v>2185164.792744109</v>
+        <v>2431677.450665782</v>
       </c>
       <c r="AE3" t="n">
-        <v>2989838.872099387</v>
+        <v>3327128.366038933</v>
       </c>
       <c r="AF3" t="n">
         <v>4.092712552542923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.72083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2704492.846411433</v>
+        <v>3009591.904438042</v>
       </c>
     </row>
     <row r="4">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1883.873349595924</v>
+        <v>2111.420867260636</v>
       </c>
       <c r="AB4" t="n">
-        <v>2577.598627543673</v>
+        <v>2888.939179900517</v>
       </c>
       <c r="AC4" t="n">
-        <v>2331.5962322133</v>
+        <v>2613.222879222416</v>
       </c>
       <c r="AD4" t="n">
-        <v>1883873.349595924</v>
+        <v>2111420.867260636</v>
       </c>
       <c r="AE4" t="n">
-        <v>2577598.627543673</v>
+        <v>2888939.179900517</v>
       </c>
       <c r="AF4" t="n">
         <v>4.459885912399787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.54583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2331596.2322133</v>
+        <v>2613222.879222416</v>
       </c>
     </row>
     <row r="5">
@@ -12050,28 +12050,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1738.384173579868</v>
+        <v>1956.449121116101</v>
       </c>
       <c r="AB5" t="n">
-        <v>2378.533918389056</v>
+        <v>2676.899999954646</v>
       </c>
       <c r="AC5" t="n">
-        <v>2151.529979511326</v>
+        <v>2421.420421011721</v>
       </c>
       <c r="AD5" t="n">
-        <v>1738384.173579868</v>
+        <v>1956449.121116101</v>
       </c>
       <c r="AE5" t="n">
-        <v>2378533.918389056</v>
+        <v>2676899.999954646</v>
       </c>
       <c r="AF5" t="n">
         <v>4.649201891701833e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>2151529.979511326</v>
+        <v>2421420.421011721</v>
       </c>
     </row>
     <row r="6">
@@ -12156,28 +12156,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1647.896262681607</v>
+        <v>1865.92704479906</v>
       </c>
       <c r="AB6" t="n">
-        <v>2254.724366653172</v>
+        <v>2553.043701585515</v>
       </c>
       <c r="AC6" t="n">
-        <v>2039.536637625317</v>
+        <v>2309.384793925532</v>
       </c>
       <c r="AD6" t="n">
-        <v>1647896.262681607</v>
+        <v>1865927.04479906</v>
       </c>
       <c r="AE6" t="n">
-        <v>2254724.366653172</v>
+        <v>2553043.701585514</v>
       </c>
       <c r="AF6" t="n">
         <v>4.761795079391998e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.59583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2039536.637625317</v>
+        <v>2309384.793925533</v>
       </c>
     </row>
     <row r="7">
@@ -12262,28 +12262,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1571.534006072174</v>
+        <v>1780.116383479929</v>
       </c>
       <c r="AB7" t="n">
-        <v>2150.242158295146</v>
+        <v>2435.633769069483</v>
       </c>
       <c r="AC7" t="n">
-        <v>1945.026064591281</v>
+        <v>2203.180300582956</v>
       </c>
       <c r="AD7" t="n">
-        <v>1571534.006072174</v>
+        <v>1780116.383479929</v>
       </c>
       <c r="AE7" t="n">
-        <v>2150242.158295146</v>
+        <v>2435633.769069483</v>
       </c>
       <c r="AF7" t="n">
         <v>4.845492670241323e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.84166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1945026.064591281</v>
+        <v>2203180.300582956</v>
       </c>
     </row>
     <row r="8">
@@ -12368,28 +12368,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1523.543622010369</v>
+        <v>1732.024514191638</v>
       </c>
       <c r="AB8" t="n">
-        <v>2084.579597635464</v>
+        <v>2369.83235184571</v>
       </c>
       <c r="AC8" t="n">
-        <v>1885.630246562975</v>
+        <v>2143.658878266151</v>
       </c>
       <c r="AD8" t="n">
-        <v>1523543.622010369</v>
+        <v>1732024.514191638</v>
       </c>
       <c r="AE8" t="n">
-        <v>2084579.597635464</v>
+        <v>2369832.351845711</v>
       </c>
       <c r="AF8" t="n">
         <v>4.89132706523024e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.4375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1885630.246562975</v>
+        <v>2143658.878266151</v>
       </c>
     </row>
     <row r="9">
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1511.992458779332</v>
+        <v>1720.473350960601</v>
       </c>
       <c r="AB9" t="n">
-        <v>2068.774786501403</v>
+        <v>2354.02754071165</v>
       </c>
       <c r="AC9" t="n">
-        <v>1871.333824421357</v>
+        <v>2129.362456124533</v>
       </c>
       <c r="AD9" t="n">
-        <v>1511992.458779332</v>
+        <v>1720473.350960601</v>
       </c>
       <c r="AE9" t="n">
-        <v>2068774.786501403</v>
+        <v>2354027.54071165</v>
       </c>
       <c r="AF9" t="n">
         <v>4.902785663977469e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.34166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1871333.824421357</v>
+        <v>2129362.456124533</v>
       </c>
     </row>
     <row r="10">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1515.8063726507</v>
+        <v>1724.287264831969</v>
       </c>
       <c r="AB10" t="n">
-        <v>2073.993151718214</v>
+        <v>2359.245905928461</v>
       </c>
       <c r="AC10" t="n">
-        <v>1876.054156185898</v>
+        <v>2134.082787889074</v>
       </c>
       <c r="AD10" t="n">
-        <v>1515806.3726507</v>
+        <v>1724287.26483197</v>
       </c>
       <c r="AE10" t="n">
-        <v>2073993.151718214</v>
+        <v>2359245.905928461</v>
       </c>
       <c r="AF10" t="n">
         <v>4.907269463487254e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="AH10" t="n">
-        <v>1876054.156185898</v>
+        <v>2134082.787889074</v>
       </c>
     </row>
   </sheetData>
@@ -12877,28 +12877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1872.615696532211</v>
+        <v>2131.582175047609</v>
       </c>
       <c r="AB2" t="n">
-        <v>2562.195409969299</v>
+        <v>2916.524770668779</v>
       </c>
       <c r="AC2" t="n">
-        <v>2317.663076105672</v>
+        <v>2638.175739924375</v>
       </c>
       <c r="AD2" t="n">
-        <v>1872615.696532211</v>
+        <v>2131582.175047609</v>
       </c>
       <c r="AE2" t="n">
-        <v>2562195.4099693</v>
+        <v>2916524.770668779</v>
       </c>
       <c r="AF2" t="n">
         <v>5.107251951662662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.75833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2317663.076105672</v>
+        <v>2638175.739924375</v>
       </c>
     </row>
     <row r="3">
@@ -12983,28 +12983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1383.32169859082</v>
+        <v>1595.998806761409</v>
       </c>
       <c r="AB3" t="n">
-        <v>1892.721775858172</v>
+        <v>2183.715977908991</v>
       </c>
       <c r="AC3" t="n">
-        <v>1712.083066021964</v>
+        <v>1975.305189841981</v>
       </c>
       <c r="AD3" t="n">
-        <v>1383321.698590819</v>
+        <v>1595998.806761409</v>
       </c>
       <c r="AE3" t="n">
-        <v>1892721.775858172</v>
+        <v>2183715.977908991</v>
       </c>
       <c r="AF3" t="n">
         <v>6.044229409444148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.42083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1712083.066021964</v>
+        <v>1975305.189841981</v>
       </c>
     </row>
     <row r="4">
@@ -13089,28 +13089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1267.890567961223</v>
+        <v>1480.600830520737</v>
       </c>
       <c r="AB4" t="n">
-        <v>1734.783810468683</v>
+        <v>2025.823375817096</v>
       </c>
       <c r="AC4" t="n">
-        <v>1569.218478381922</v>
+        <v>1832.481636090077</v>
       </c>
       <c r="AD4" t="n">
-        <v>1267890.567961223</v>
+        <v>1480600.830520737</v>
       </c>
       <c r="AE4" t="n">
-        <v>1734783.810468683</v>
+        <v>2025823.375817096</v>
       </c>
       <c r="AF4" t="n">
         <v>6.270896248738685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.78333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1569218.478381922</v>
+        <v>1832481.636090077</v>
       </c>
     </row>
     <row r="5">
@@ -13195,28 +13195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1274.137278746246</v>
+        <v>1486.84754130576</v>
       </c>
       <c r="AB5" t="n">
-        <v>1743.330835750182</v>
+        <v>2034.370401098594</v>
       </c>
       <c r="AC5" t="n">
-        <v>1576.949787566379</v>
+        <v>1840.212945274534</v>
       </c>
       <c r="AD5" t="n">
-        <v>1274137.278746246</v>
+        <v>1486847.54130576</v>
       </c>
       <c r="AE5" t="n">
-        <v>1743330.835750182</v>
+        <v>2034370.401098594</v>
       </c>
       <c r="AF5" t="n">
         <v>6.275508655352237e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>1576949.787566379</v>
+        <v>1840212.945274534</v>
       </c>
     </row>
   </sheetData>
@@ -13492,28 +13492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7938.776921671062</v>
+        <v>8424.087705967137</v>
       </c>
       <c r="AB2" t="n">
-        <v>10862.18481835047</v>
+        <v>11526.20844382513</v>
       </c>
       <c r="AC2" t="n">
-        <v>9825.51314445883</v>
+        <v>10426.16328708117</v>
       </c>
       <c r="AD2" t="n">
-        <v>7938776.921671062</v>
+        <v>8424087.705967136</v>
       </c>
       <c r="AE2" t="n">
-        <v>10862184.81835047</v>
+        <v>11526208.44382513</v>
       </c>
       <c r="AF2" t="n">
         <v>1.707764347245346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>99</v>
+        <v>98.12083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>9825513.14445883</v>
+        <v>10426163.28708117</v>
       </c>
     </row>
     <row r="3">
@@ -13598,28 +13598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3377.091153560405</v>
+        <v>3668.324849106427</v>
       </c>
       <c r="AB3" t="n">
-        <v>4620.685103048348</v>
+        <v>5019.163893618297</v>
       </c>
       <c r="AC3" t="n">
-        <v>4179.693401985513</v>
+        <v>4540.141936051945</v>
       </c>
       <c r="AD3" t="n">
-        <v>3377091.153560405</v>
+        <v>3668324.849106427</v>
       </c>
       <c r="AE3" t="n">
-        <v>4620685.103048348</v>
+        <v>5019163.893618297</v>
       </c>
       <c r="AF3" t="n">
         <v>2.855256500493337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.69583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4179693.401985512</v>
+        <v>4540141.936051945</v>
       </c>
     </row>
     <row r="4">
@@ -13704,28 +13704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2720.647545660041</v>
+        <v>2972.978206603052</v>
       </c>
       <c r="AB4" t="n">
-        <v>3722.509998470951</v>
+        <v>4067.759940816299</v>
       </c>
       <c r="AC4" t="n">
-        <v>3367.23886879234</v>
+        <v>3679.538641201571</v>
       </c>
       <c r="AD4" t="n">
-        <v>2720647.545660041</v>
+        <v>2972978.206603052</v>
       </c>
       <c r="AE4" t="n">
-        <v>3722509.998470951</v>
+        <v>4067759.940816299</v>
       </c>
       <c r="AF4" t="n">
         <v>3.271136937387281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.23333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3367238.86879234</v>
+        <v>3679538.641201571</v>
       </c>
     </row>
     <row r="5">
@@ -13810,28 +13810,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2455.204918272729</v>
+        <v>2688.151887236867</v>
       </c>
       <c r="AB5" t="n">
-        <v>3359.319685177376</v>
+        <v>3678.048005009091</v>
       </c>
       <c r="AC5" t="n">
-        <v>3038.71092925871</v>
+        <v>3327.020265583681</v>
       </c>
       <c r="AD5" t="n">
-        <v>2455204.918272729</v>
+        <v>2688151.887236868</v>
       </c>
       <c r="AE5" t="n">
-        <v>3359319.685177376</v>
+        <v>3678048.005009091</v>
       </c>
       <c r="AF5" t="n">
         <v>3.486316853962001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.07083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3038710.92925871</v>
+        <v>3327020.265583681</v>
       </c>
     </row>
     <row r="6">
@@ -13916,28 +13916,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2300.404069446826</v>
+        <v>2533.282707573403</v>
       </c>
       <c r="AB6" t="n">
-        <v>3147.514334482302</v>
+        <v>3466.149161047522</v>
       </c>
       <c r="AC6" t="n">
-        <v>2847.119983963305</v>
+        <v>3135.344749887917</v>
       </c>
       <c r="AD6" t="n">
-        <v>2300404.069446826</v>
+        <v>2533282.707573403</v>
       </c>
       <c r="AE6" t="n">
-        <v>3147514.334482302</v>
+        <v>3466149.161047522</v>
       </c>
       <c r="AF6" t="n">
         <v>3.621055680228414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.27916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2847119.983963305</v>
+        <v>3135344.749887917</v>
       </c>
     </row>
     <row r="7">
@@ -14022,28 +14022,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2202.510001390461</v>
+        <v>2425.713876236991</v>
       </c>
       <c r="AB7" t="n">
-        <v>3013.571351786098</v>
+        <v>3318.968740411125</v>
       </c>
       <c r="AC7" t="n">
-        <v>2725.960331545475</v>
+        <v>3002.211022028046</v>
       </c>
       <c r="AD7" t="n">
-        <v>2202510.001390461</v>
+        <v>2425713.876236991</v>
       </c>
       <c r="AE7" t="n">
-        <v>3013571.351786098</v>
+        <v>3318968.740411125</v>
       </c>
       <c r="AF7" t="n">
         <v>3.713562934082967e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.12916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2725960.331545475</v>
+        <v>3002211.022028046</v>
       </c>
     </row>
     <row r="8">
@@ -14128,28 +14128,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2129.172466440138</v>
+        <v>2352.342175867891</v>
       </c>
       <c r="AB8" t="n">
-        <v>2913.227701043195</v>
+        <v>3218.578343035147</v>
       </c>
       <c r="AC8" t="n">
-        <v>2635.193337996391</v>
+        <v>2911.401743278826</v>
       </c>
       <c r="AD8" t="n">
-        <v>2129172.466440138</v>
+        <v>2352342.17586789</v>
       </c>
       <c r="AE8" t="n">
-        <v>2913227.701043195</v>
+        <v>3218578.343035147</v>
       </c>
       <c r="AF8" t="n">
         <v>3.777111395426529e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.36666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2635193.337996391</v>
+        <v>2911401.743278827</v>
       </c>
     </row>
     <row r="9">
@@ -14234,28 +14234,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2070.129180809404</v>
+        <v>2293.366210044862</v>
       </c>
       <c r="AB9" t="n">
-        <v>2832.442072837302</v>
+        <v>3137.884824760089</v>
       </c>
       <c r="AC9" t="n">
-        <v>2562.117776763126</v>
+        <v>2838.40950113388</v>
       </c>
       <c r="AD9" t="n">
-        <v>2070129.180809404</v>
+        <v>2293366.210044862</v>
       </c>
       <c r="AE9" t="n">
-        <v>2832442.072837302</v>
+        <v>3137884.82476009</v>
       </c>
       <c r="AF9" t="n">
         <v>3.826180460514596e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="AH9" t="n">
-        <v>2562117.776763126</v>
+        <v>2838409.50113388</v>
       </c>
     </row>
     <row r="10">
@@ -14340,28 +14340,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2020.485199404232</v>
+        <v>2233.980145551939</v>
       </c>
       <c r="AB10" t="n">
-        <v>2764.516987340858</v>
+        <v>3056.630191392608</v>
       </c>
       <c r="AC10" t="n">
-        <v>2500.675366093006</v>
+        <v>2764.909695933399</v>
       </c>
       <c r="AD10" t="n">
-        <v>2020485.199404232</v>
+        <v>2233980.145551939</v>
       </c>
       <c r="AE10" t="n">
-        <v>2764516.987340858</v>
+        <v>3056630.191392608</v>
       </c>
       <c r="AF10" t="n">
         <v>3.873238498344955e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.27083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2500675.366093006</v>
+        <v>2764909.695933399</v>
       </c>
     </row>
     <row r="11">
@@ -14446,28 +14446,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1997.511856361258</v>
+        <v>2211.006802508964</v>
       </c>
       <c r="AB11" t="n">
-        <v>2733.083845877095</v>
+        <v>3025.197049928844</v>
       </c>
       <c r="AC11" t="n">
-        <v>2472.242159533854</v>
+        <v>2736.476489374246</v>
       </c>
       <c r="AD11" t="n">
-        <v>1997511.856361258</v>
+        <v>2211006.802508964</v>
       </c>
       <c r="AE11" t="n">
-        <v>2733083.845877095</v>
+        <v>3025197.049928844</v>
       </c>
       <c r="AF11" t="n">
         <v>3.890131127309699e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.07916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2472242.159533854</v>
+        <v>2736476.489374246</v>
       </c>
     </row>
     <row r="12">
@@ -14552,28 +14552,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1950.027016450588</v>
+        <v>2163.589282405996</v>
       </c>
       <c r="AB12" t="n">
-        <v>2668.112993028029</v>
+        <v>2960.318307010442</v>
       </c>
       <c r="AC12" t="n">
-        <v>2413.472033693538</v>
+        <v>2677.789682622204</v>
       </c>
       <c r="AD12" t="n">
-        <v>1950027.016450588</v>
+        <v>2163589.282405996</v>
       </c>
       <c r="AE12" t="n">
-        <v>2668112.993028029</v>
+        <v>2960318.307010442</v>
       </c>
       <c r="AF12" t="n">
         <v>3.920698741626856e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.74583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2413472.033693538</v>
+        <v>2677789.682622204</v>
       </c>
     </row>
     <row r="13">
@@ -14658,28 +14658,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1919.1062963004</v>
+        <v>2132.567077029322</v>
       </c>
       <c r="AB13" t="n">
-        <v>2625.805899592644</v>
+        <v>2917.872357010967</v>
       </c>
       <c r="AC13" t="n">
-        <v>2375.202669877247</v>
+        <v>2639.394714517414</v>
       </c>
       <c r="AD13" t="n">
-        <v>1919106.2963004</v>
+        <v>2132567.077029322</v>
       </c>
       <c r="AE13" t="n">
-        <v>2625805.899592644</v>
+        <v>2917872.357010967</v>
       </c>
       <c r="AF13" t="n">
         <v>3.944026657816265e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.49166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2375202.669877247</v>
+        <v>2639394.714517414</v>
       </c>
     </row>
     <row r="14">
@@ -14764,28 +14764,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1891.298285823978</v>
+        <v>2104.759066552901</v>
       </c>
       <c r="AB14" t="n">
-        <v>2587.757752855965</v>
+        <v>2879.824210274289</v>
       </c>
       <c r="AC14" t="n">
-        <v>2340.785784864208</v>
+        <v>2604.977829504374</v>
       </c>
       <c r="AD14" t="n">
-        <v>1891298.285823978</v>
+        <v>2104759.066552901</v>
       </c>
       <c r="AE14" t="n">
-        <v>2587757.752855965</v>
+        <v>2879824.210274289</v>
       </c>
       <c r="AF14" t="n">
         <v>3.963332519490258e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.28333333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>2340785.784864208</v>
+        <v>2604977.829504374</v>
       </c>
     </row>
     <row r="15">
@@ -14870,28 +14870,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1861.180184800087</v>
+        <v>2065.000367667745</v>
       </c>
       <c r="AB15" t="n">
-        <v>2546.548838318236</v>
+        <v>2825.424604429616</v>
       </c>
       <c r="AC15" t="n">
-        <v>2303.509791292885</v>
+        <v>2555.770045691191</v>
       </c>
       <c r="AD15" t="n">
-        <v>1861180.184800087</v>
+        <v>2065000.367667745</v>
       </c>
       <c r="AE15" t="n">
-        <v>2546548.838318236</v>
+        <v>2825424.604429617</v>
       </c>
       <c r="AF15" t="n">
         <v>3.977811915745754e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.12916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2303509.791292885</v>
+        <v>2555770.045691191</v>
       </c>
     </row>
     <row r="16">
@@ -14976,28 +14976,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1820.796099709545</v>
+        <v>2034.324200246172</v>
       </c>
       <c r="AB16" t="n">
-        <v>2491.293551477263</v>
+        <v>2783.452118826428</v>
       </c>
       <c r="AC16" t="n">
-        <v>2253.527991476733</v>
+        <v>2517.803355205218</v>
       </c>
       <c r="AD16" t="n">
-        <v>1820796.099709545</v>
+        <v>2034324.200246172</v>
       </c>
       <c r="AE16" t="n">
-        <v>2491293.551477263</v>
+        <v>2783452.118826428</v>
       </c>
       <c r="AF16" t="n">
         <v>3.997117777419747e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>42</v>
+        <v>41.92916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2253527.991476733</v>
+        <v>2517803.355205218</v>
       </c>
     </row>
     <row r="17">
@@ -15082,28 +15082,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1806.916857400609</v>
+        <v>2020.444957937236</v>
       </c>
       <c r="AB17" t="n">
-        <v>2472.303359841221</v>
+        <v>2764.461927190386</v>
       </c>
       <c r="AC17" t="n">
-        <v>2236.350197077533</v>
+        <v>2500.625560806018</v>
       </c>
       <c r="AD17" t="n">
-        <v>1806916.857400609</v>
+        <v>2020444.957937236</v>
       </c>
       <c r="AE17" t="n">
-        <v>2472303.359841221</v>
+        <v>2764461.927190386</v>
       </c>
       <c r="AF17" t="n">
         <v>4.005161886450578e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>42</v>
+        <v>41.84166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2236350.197077533</v>
+        <v>2500625.560806018</v>
       </c>
     </row>
     <row r="18">
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1796.403183825613</v>
+        <v>2009.931284362241</v>
       </c>
       <c r="AB18" t="n">
-        <v>2457.918087825369</v>
+        <v>2750.076655174534</v>
       </c>
       <c r="AC18" t="n">
-        <v>2223.337835233018</v>
+        <v>2487.613198961503</v>
       </c>
       <c r="AD18" t="n">
-        <v>1796403.183825613</v>
+        <v>2009931.284362241</v>
       </c>
       <c r="AE18" t="n">
-        <v>2457918.087825369</v>
+        <v>2750076.655174534</v>
       </c>
       <c r="AF18" t="n">
         <v>4.010390557320617e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>42</v>
+        <v>41.7875</v>
       </c>
       <c r="AH18" t="n">
-        <v>2223337.835233018</v>
+        <v>2487613.198961503</v>
       </c>
     </row>
     <row r="19">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1802.639142483619</v>
+        <v>2016.167243020247</v>
       </c>
       <c r="AB19" t="n">
-        <v>2466.450401572333</v>
+        <v>2758.608968921497</v>
       </c>
       <c r="AC19" t="n">
-        <v>2231.055836931148</v>
+        <v>2495.331200659634</v>
       </c>
       <c r="AD19" t="n">
-        <v>1802639.142483619</v>
+        <v>2016167.243020247</v>
       </c>
       <c r="AE19" t="n">
-        <v>2466450.401572333</v>
+        <v>2758608.968921497</v>
       </c>
       <c r="AF19" t="n">
         <v>4.009988351869076e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>42</v>
+        <v>41.79166666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>2231055.836931149</v>
+        <v>2495331.200659634</v>
       </c>
     </row>
     <row r="20">
@@ -15400,28 +15400,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1808.664876073517</v>
+        <v>2022.192976610144</v>
       </c>
       <c r="AB20" t="n">
-        <v>2474.695076106634</v>
+        <v>2766.853643455799</v>
       </c>
       <c r="AC20" t="n">
-        <v>2238.513651299369</v>
+        <v>2502.789015027855</v>
       </c>
       <c r="AD20" t="n">
-        <v>1808664.876073516</v>
+        <v>2022192.976610144</v>
       </c>
       <c r="AE20" t="n">
-        <v>2474695.076106634</v>
+        <v>2766853.643455799</v>
       </c>
       <c r="AF20" t="n">
         <v>4.010390557320617e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>42</v>
+        <v>41.7875</v>
       </c>
       <c r="AH20" t="n">
-        <v>2238513.65129937</v>
+        <v>2502789.015027855</v>
       </c>
     </row>
   </sheetData>
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1568.316914527896</v>
+        <v>1816.331414076022</v>
       </c>
       <c r="AB2" t="n">
-        <v>2145.840391716202</v>
+        <v>2485.184771625448</v>
       </c>
       <c r="AC2" t="n">
-        <v>1941.044396436712</v>
+        <v>2248.002225000249</v>
       </c>
       <c r="AD2" t="n">
-        <v>1568316.914527895</v>
+        <v>1816331.414076022</v>
       </c>
       <c r="AE2" t="n">
-        <v>2145840.391716202</v>
+        <v>2485184.771625448</v>
       </c>
       <c r="AF2" t="n">
         <v>5.895409040309556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.95416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1941044.396436712</v>
+        <v>2248002.225000249</v>
       </c>
     </row>
     <row r="3">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1216.905087972895</v>
+        <v>1428.22984490607</v>
       </c>
       <c r="AB3" t="n">
-        <v>1665.023227428025</v>
+        <v>1954.167082854286</v>
       </c>
       <c r="AC3" t="n">
-        <v>1506.11574747707</v>
+        <v>1767.664119157399</v>
       </c>
       <c r="AD3" t="n">
-        <v>1216905.087972895</v>
+        <v>1428229.84490607</v>
       </c>
       <c r="AE3" t="n">
-        <v>1665023.227428025</v>
+        <v>1954167.082854286</v>
       </c>
       <c r="AF3" t="n">
         <v>6.735344411712349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>1506115.74747707</v>
+        <v>1767664.119157399</v>
       </c>
     </row>
     <row r="4">
@@ -15909,28 +15909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1219.129677249891</v>
+        <v>1430.35294895658</v>
       </c>
       <c r="AB4" t="n">
-        <v>1668.067008618763</v>
+        <v>1957.072007480935</v>
       </c>
       <c r="AC4" t="n">
-        <v>1508.869034462938</v>
+        <v>1770.291801854768</v>
       </c>
       <c r="AD4" t="n">
-        <v>1219129.677249891</v>
+        <v>1430352.94895658</v>
       </c>
       <c r="AE4" t="n">
-        <v>1668067.008618763</v>
+        <v>1957072.007480935</v>
       </c>
       <c r="AF4" t="n">
         <v>6.751926826770086e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.49166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1508869.034462938</v>
+        <v>1770291.801854768</v>
       </c>
     </row>
   </sheetData>
@@ -16206,28 +16206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5054.324207916114</v>
+        <v>5447.280586979383</v>
       </c>
       <c r="AB2" t="n">
-        <v>6915.549362318064</v>
+        <v>7453.209616164389</v>
       </c>
       <c r="AC2" t="n">
-        <v>6255.539037212656</v>
+        <v>6741.885751042773</v>
       </c>
       <c r="AD2" t="n">
-        <v>5054324.207916114</v>
+        <v>5447280.586979383</v>
       </c>
       <c r="AE2" t="n">
-        <v>6915549.362318064</v>
+        <v>7453209.616164388</v>
       </c>
       <c r="AF2" t="n">
         <v>2.355132213391732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6255539.037212656</v>
+        <v>6741885.751042773</v>
       </c>
     </row>
     <row r="3">
@@ -16312,28 +16312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2664.289626986889</v>
+        <v>2932.697722089932</v>
       </c>
       <c r="AB3" t="n">
-        <v>3645.398607806443</v>
+        <v>4012.646404855886</v>
       </c>
       <c r="AC3" t="n">
-        <v>3297.486881026338</v>
+        <v>3629.685063760889</v>
       </c>
       <c r="AD3" t="n">
-        <v>2664289.626986889</v>
+        <v>2932697.722089932</v>
       </c>
       <c r="AE3" t="n">
-        <v>3645398.607806443</v>
+        <v>4012646.404855886</v>
       </c>
       <c r="AF3" t="n">
         <v>3.461215239585984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.95416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3297486.881026338</v>
+        <v>3629685.063760889</v>
       </c>
     </row>
     <row r="4">
@@ -16418,28 +16418,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2236.71593790002</v>
+        <v>2476.29138184458</v>
       </c>
       <c r="AB4" t="n">
-        <v>3060.373423177893</v>
+        <v>3388.171114905501</v>
       </c>
       <c r="AC4" t="n">
-        <v>2768.295678930755</v>
+        <v>3064.808819026818</v>
       </c>
       <c r="AD4" t="n">
-        <v>2236715.93790002</v>
+        <v>2476291.38184458</v>
       </c>
       <c r="AE4" t="n">
-        <v>3060373.423177893</v>
+        <v>3388171.114905501</v>
       </c>
       <c r="AF4" t="n">
         <v>3.851571121196679e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.48333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2768295.678930755</v>
+        <v>3064808.819026818</v>
       </c>
     </row>
     <row r="5">
@@ -16524,28 +16524,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2051.718381738071</v>
+        <v>2272.18526895301</v>
       </c>
       <c r="AB5" t="n">
-        <v>2807.251605320772</v>
+        <v>3108.904126721044</v>
       </c>
       <c r="AC5" t="n">
-        <v>2539.331452111331</v>
+        <v>2812.194680241017</v>
       </c>
       <c r="AD5" t="n">
-        <v>2051718.381738071</v>
+        <v>2272185.26895301</v>
       </c>
       <c r="AE5" t="n">
-        <v>2807251.605320772</v>
+        <v>3108904.126721044</v>
       </c>
       <c r="AF5" t="n">
         <v>4.0527993540821e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.075</v>
       </c>
       <c r="AH5" t="n">
-        <v>2539331.452111331</v>
+        <v>2812194.680241017</v>
       </c>
     </row>
     <row r="6">
@@ -16630,28 +16630,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1933.797758663569</v>
+        <v>2154.297800267429</v>
       </c>
       <c r="AB6" t="n">
-        <v>2645.907406539508</v>
+        <v>2947.605291237192</v>
       </c>
       <c r="AC6" t="n">
-        <v>2393.385717213746</v>
+        <v>2666.289979231523</v>
       </c>
       <c r="AD6" t="n">
-        <v>1933797.758663569</v>
+        <v>2154297.800267429</v>
       </c>
       <c r="AE6" t="n">
-        <v>2645907.406539508</v>
+        <v>2947605.291237192</v>
       </c>
       <c r="AF6" t="n">
         <v>4.175597874818414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.725</v>
       </c>
       <c r="AH6" t="n">
-        <v>2393385.717213746</v>
+        <v>2666289.979231523</v>
       </c>
     </row>
     <row r="7">
@@ -16736,28 +16736,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1851.648737448179</v>
+        <v>2072.114613633258</v>
       </c>
       <c r="AB7" t="n">
-        <v>2533.507491553576</v>
+        <v>2835.158629618012</v>
       </c>
       <c r="AC7" t="n">
-        <v>2291.713092359799</v>
+        <v>2564.575069177396</v>
       </c>
       <c r="AD7" t="n">
-        <v>1851648.737448179</v>
+        <v>2072114.613633258</v>
       </c>
       <c r="AE7" t="n">
-        <v>2533507.491553576</v>
+        <v>2835158.629618012</v>
       </c>
       <c r="AF7" t="n">
         <v>4.261198303506867e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.82500000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>2291713.092359799</v>
+        <v>2564575.069177397</v>
       </c>
     </row>
     <row r="8">
@@ -16842,28 +16842,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1795.4168629982</v>
+        <v>2006.261141010762</v>
       </c>
       <c r="AB8" t="n">
-        <v>2456.568560155898</v>
+        <v>2745.055003125743</v>
       </c>
       <c r="AC8" t="n">
-        <v>2222.117104590247</v>
+        <v>2483.070806336316</v>
       </c>
       <c r="AD8" t="n">
-        <v>1795416.8629982</v>
+        <v>2006261.141010762</v>
       </c>
       <c r="AE8" t="n">
-        <v>2456568.560155898</v>
+        <v>2745055.003125743</v>
       </c>
       <c r="AF8" t="n">
         <v>4.324390243009862e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.17916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2222117.104590247</v>
+        <v>2483070.806336316</v>
       </c>
     </row>
     <row r="9">
@@ -16948,28 +16948,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1749.061772301749</v>
+        <v>1959.973370122015</v>
       </c>
       <c r="AB9" t="n">
-        <v>2393.143480022744</v>
+        <v>2681.722032923431</v>
       </c>
       <c r="AC9" t="n">
-        <v>2164.745225087343</v>
+        <v>2425.78224592173</v>
       </c>
       <c r="AD9" t="n">
-        <v>1749061.772301749</v>
+        <v>1959973.370122015</v>
       </c>
       <c r="AE9" t="n">
-        <v>2393143.480022744</v>
+        <v>2681722.032923431</v>
       </c>
       <c r="AF9" t="n">
         <v>4.354417618518377e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.88333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2164745.225087342</v>
+        <v>2425782.24592173</v>
       </c>
     </row>
     <row r="10">
@@ -17054,28 +17054,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1699.430926626171</v>
+        <v>1910.241039219952</v>
       </c>
       <c r="AB10" t="n">
-        <v>2325.236367411038</v>
+        <v>2613.676063747636</v>
       </c>
       <c r="AC10" t="n">
-        <v>2103.319071995067</v>
+        <v>2364.230488540956</v>
       </c>
       <c r="AD10" t="n">
-        <v>1699430.926626171</v>
+        <v>1910241.039219952</v>
       </c>
       <c r="AE10" t="n">
-        <v>2325236.367411038</v>
+        <v>2613676.063747636</v>
       </c>
       <c r="AF10" t="n">
         <v>4.398786427105585e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.45</v>
       </c>
       <c r="AH10" t="n">
-        <v>2103319.071995067</v>
+        <v>2364230.488540956</v>
       </c>
     </row>
     <row r="11">
@@ -17160,28 +17160,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1663.484213525444</v>
+        <v>1864.774213173194</v>
       </c>
       <c r="AB11" t="n">
-        <v>2276.052488689566</v>
+        <v>2551.466346495663</v>
       </c>
       <c r="AC11" t="n">
-        <v>2058.829233628765</v>
+        <v>2307.957979391624</v>
       </c>
       <c r="AD11" t="n">
-        <v>1663484.213525444</v>
+        <v>1864774.213173194</v>
       </c>
       <c r="AE11" t="n">
-        <v>2276052.488689566</v>
+        <v>2551466.346495663</v>
       </c>
       <c r="AF11" t="n">
         <v>4.426572953695554e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.1875</v>
       </c>
       <c r="AH11" t="n">
-        <v>2058829.233628765</v>
+        <v>2307957.979391624</v>
       </c>
     </row>
     <row r="12">
@@ -17266,28 +17266,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1643.29962168062</v>
+        <v>1844.58962132837</v>
       </c>
       <c r="AB12" t="n">
-        <v>2248.435039646132</v>
+        <v>2523.848897452229</v>
       </c>
       <c r="AC12" t="n">
-        <v>2033.847555160703</v>
+        <v>2282.976300923563</v>
       </c>
       <c r="AD12" t="n">
-        <v>1643299.62168062</v>
+        <v>1844589.62132837</v>
       </c>
       <c r="AE12" t="n">
-        <v>2248435.039646132</v>
+        <v>2523848.897452229</v>
       </c>
       <c r="AF12" t="n">
         <v>4.443603405476504e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.025</v>
       </c>
       <c r="AH12" t="n">
-        <v>2033847.555160703</v>
+        <v>2282976.300923563</v>
       </c>
     </row>
     <row r="13">
@@ -17372,28 +17372,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1644.738170048813</v>
+        <v>1846.028169696563</v>
       </c>
       <c r="AB13" t="n">
-        <v>2250.40332498777</v>
+        <v>2525.817182793866</v>
       </c>
       <c r="AC13" t="n">
-        <v>2035.62799011184</v>
+        <v>2284.7567358747</v>
       </c>
       <c r="AD13" t="n">
-        <v>1644738.170048813</v>
+        <v>1846028.169696563</v>
       </c>
       <c r="AE13" t="n">
-        <v>2250403.32498777</v>
+        <v>2525817.182793866</v>
       </c>
       <c r="AF13" t="n">
         <v>4.444499745043922e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.0125</v>
       </c>
       <c r="AH13" t="n">
-        <v>2035627.99011184</v>
+        <v>2284756.735874699</v>
       </c>
     </row>
   </sheetData>
@@ -17669,28 +17669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6304.942254523089</v>
+        <v>6748.755752785744</v>
       </c>
       <c r="AB2" t="n">
-        <v>8626.700147060101</v>
+        <v>9233.945355052778</v>
       </c>
       <c r="AC2" t="n">
-        <v>7803.379992674058</v>
+        <v>8352.670570289894</v>
       </c>
       <c r="AD2" t="n">
-        <v>6304942.254523089</v>
+        <v>6748755.752785744</v>
       </c>
       <c r="AE2" t="n">
-        <v>8626700.1470601</v>
+        <v>9233945.355052778</v>
       </c>
       <c r="AF2" t="n">
         <v>2.005598749687343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.88333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7803379.992674057</v>
+        <v>8352670.570289894</v>
       </c>
     </row>
     <row r="3">
@@ -17775,28 +17775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3014.042506361843</v>
+        <v>3293.788478286046</v>
       </c>
       <c r="AB3" t="n">
-        <v>4123.945927375326</v>
+        <v>4506.706707683304</v>
       </c>
       <c r="AC3" t="n">
-        <v>3730.362316060931</v>
+        <v>4076.592944704429</v>
       </c>
       <c r="AD3" t="n">
-        <v>3014042.506361843</v>
+        <v>3293788.478286046</v>
       </c>
       <c r="AE3" t="n">
-        <v>4123945.927375326</v>
+        <v>4506706.707683303</v>
       </c>
       <c r="AF3" t="n">
         <v>3.133404332194505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>3730362.316060931</v>
+        <v>4076592.944704429</v>
       </c>
     </row>
     <row r="4">
@@ -17881,28 +17881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2471.665505046623</v>
+        <v>2722.52552547824</v>
       </c>
       <c r="AB4" t="n">
-        <v>3381.841786191255</v>
+        <v>3725.079533308833</v>
       </c>
       <c r="AC4" t="n">
-        <v>3059.083552561791</v>
+        <v>3369.563170831659</v>
       </c>
       <c r="AD4" t="n">
-        <v>2471665.505046623</v>
+        <v>2722525.52547824</v>
       </c>
       <c r="AE4" t="n">
-        <v>3381841.786191255</v>
+        <v>3725079.533308833</v>
       </c>
       <c r="AF4" t="n">
         <v>3.536554639819908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.84166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3059083.552561791</v>
+        <v>3369563.170831659</v>
       </c>
     </row>
     <row r="5">
@@ -17987,28 +17987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2253.566664171659</v>
+        <v>2485.091349347493</v>
       </c>
       <c r="AB5" t="n">
-        <v>3083.429330264327</v>
+        <v>3400.211618670152</v>
       </c>
       <c r="AC5" t="n">
-        <v>2789.151162604028</v>
+        <v>3075.700194011124</v>
       </c>
       <c r="AD5" t="n">
-        <v>2253566.664171659</v>
+        <v>2485091.349347493</v>
       </c>
       <c r="AE5" t="n">
-        <v>3083429.330264327</v>
+        <v>3400211.618670153</v>
       </c>
       <c r="AF5" t="n">
         <v>3.745109835684886e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.06666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2789151.162604028</v>
+        <v>3075700.194011124</v>
       </c>
     </row>
     <row r="6">
@@ -18093,28 +18093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2123.495267493769</v>
+        <v>2355.053107058529</v>
       </c>
       <c r="AB6" t="n">
-        <v>2905.459906984432</v>
+        <v>3222.287558688021</v>
       </c>
       <c r="AC6" t="n">
-        <v>2628.166891300428</v>
+        <v>2914.756956595708</v>
       </c>
       <c r="AD6" t="n">
-        <v>2123495.267493769</v>
+        <v>2355053.107058529</v>
       </c>
       <c r="AE6" t="n">
-        <v>2905459.906984432</v>
+        <v>3222287.558688021</v>
       </c>
       <c r="AF6" t="n">
         <v>3.86863542836759e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2628166.891300428</v>
+        <v>2914756.956595708</v>
       </c>
     </row>
     <row r="7">
@@ -18199,28 +18199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2030.216851782352</v>
+        <v>2252.056281105978</v>
       </c>
       <c r="AB7" t="n">
-        <v>2777.832263454803</v>
+        <v>3081.362757520464</v>
       </c>
       <c r="AC7" t="n">
-        <v>2512.719850942745</v>
+        <v>2787.281820662387</v>
       </c>
       <c r="AD7" t="n">
-        <v>2030216.851782352</v>
+        <v>2252056.281105977</v>
       </c>
       <c r="AE7" t="n">
-        <v>2777832.263454803</v>
+        <v>3081362.757520464</v>
       </c>
       <c r="AF7" t="n">
         <v>3.962971754286232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.47499999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>2512719.850942745</v>
+        <v>2787281.820662387</v>
       </c>
     </row>
     <row r="8">
@@ -18305,28 +18305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1963.281701521331</v>
+        <v>2185.188450652659</v>
       </c>
       <c r="AB8" t="n">
-        <v>2686.248637897256</v>
+        <v>2989.871241893577</v>
       </c>
       <c r="AC8" t="n">
-        <v>2429.876838069984</v>
+        <v>2704.522126877897</v>
       </c>
       <c r="AD8" t="n">
-        <v>1963281.701521331</v>
+        <v>2185188.450652659</v>
       </c>
       <c r="AE8" t="n">
-        <v>2686248.637897256</v>
+        <v>2989871.241893577</v>
       </c>
       <c r="AF8" t="n">
         <v>4.023042419220972e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.8125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2429876.838069984</v>
+        <v>2704522.126877897</v>
       </c>
     </row>
     <row r="9">
@@ -18411,28 +18411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1910.449968564312</v>
+        <v>2122.672472873287</v>
       </c>
       <c r="AB9" t="n">
-        <v>2613.961930093902</v>
+        <v>2904.334123085551</v>
       </c>
       <c r="AC9" t="n">
-        <v>2364.489072204351</v>
+        <v>2627.148550636809</v>
       </c>
       <c r="AD9" t="n">
-        <v>1910449.968564312</v>
+        <v>2122672.472873286</v>
       </c>
       <c r="AE9" t="n">
-        <v>2613961.930093902</v>
+        <v>2904334.123085551</v>
       </c>
       <c r="AF9" t="n">
         <v>4.079305788490834e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.2125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2364489.07220435</v>
+        <v>2627148.550636809</v>
       </c>
     </row>
     <row r="10">
@@ -18517,28 +18517,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1886.994474363132</v>
+        <v>2099.216978672105</v>
       </c>
       <c r="AB10" t="n">
-        <v>2581.869088144474</v>
+        <v>2872.241281136122</v>
       </c>
       <c r="AC10" t="n">
-        <v>2335.459126047989</v>
+        <v>2598.118604480447</v>
       </c>
       <c r="AD10" t="n">
-        <v>1886994.474363132</v>
+        <v>2099216.978672105</v>
       </c>
       <c r="AE10" t="n">
-        <v>2581869.088144474</v>
+        <v>2872241.281136123</v>
       </c>
       <c r="AF10" t="n">
         <v>4.093265872595386e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.0625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2335459.126047989</v>
+        <v>2598118.604480447</v>
       </c>
     </row>
     <row r="11">
@@ -18623,28 +18623,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1829.181356450578</v>
+        <v>2041.471180567256</v>
       </c>
       <c r="AB11" t="n">
-        <v>2502.766629681764</v>
+        <v>2793.230932604254</v>
       </c>
       <c r="AC11" t="n">
-        <v>2263.906095199962</v>
+        <v>2526.648892720739</v>
       </c>
       <c r="AD11" t="n">
-        <v>1829181.356450578</v>
+        <v>2041471.180567256</v>
       </c>
       <c r="AE11" t="n">
-        <v>2502766.629681764</v>
+        <v>2793230.932604254</v>
       </c>
       <c r="AF11" t="n">
         <v>4.136838256315655e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.60833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2263906.095199962</v>
+        <v>2526648.892720739</v>
       </c>
     </row>
     <row r="12">
@@ -18729,28 +18729,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1794.408178093476</v>
+        <v>2006.596516983669</v>
       </c>
       <c r="AB12" t="n">
-        <v>2455.188432969217</v>
+        <v>2745.513879327618</v>
       </c>
       <c r="AC12" t="n">
-        <v>2220.868694805242</v>
+        <v>2483.48588803752</v>
       </c>
       <c r="AD12" t="n">
-        <v>1794408.178093476</v>
+        <v>2006596.516983669</v>
       </c>
       <c r="AE12" t="n">
-        <v>2455188.432969217</v>
+        <v>2745513.879327618</v>
       </c>
       <c r="AF12" t="n">
         <v>4.162643260266494e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.34166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2220868.694805242</v>
+        <v>2483485.88803752</v>
       </c>
     </row>
     <row r="13">
@@ -18835,28 +18835,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1760.431665528904</v>
+        <v>1963.037244823228</v>
       </c>
       <c r="AB13" t="n">
-        <v>2408.700269540425</v>
+        <v>2685.914161458242</v>
       </c>
       <c r="AC13" t="n">
-        <v>2178.817296447547</v>
+        <v>2429.574283592869</v>
       </c>
       <c r="AD13" t="n">
-        <v>1760431.665528903</v>
+        <v>1963037.244823228</v>
       </c>
       <c r="AE13" t="n">
-        <v>2408700.269540425</v>
+        <v>2685914.161458242</v>
       </c>
       <c r="AF13" t="n">
         <v>4.185064001404109e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.11666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2178817.296447547</v>
+        <v>2429574.283592869</v>
       </c>
     </row>
     <row r="14">
@@ -18941,28 +18941,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1723.243811945863</v>
+        <v>1935.49947064376</v>
       </c>
       <c r="AB14" t="n">
-        <v>2357.818207655798</v>
+        <v>2648.23576394504</v>
       </c>
       <c r="AC14" t="n">
-        <v>2132.791347135766</v>
+        <v>2395.491859456364</v>
       </c>
       <c r="AD14" t="n">
-        <v>1723243.811945863</v>
+        <v>1935499.47064376</v>
       </c>
       <c r="AE14" t="n">
-        <v>2357818.207655798</v>
+        <v>2648235.76394504</v>
       </c>
       <c r="AF14" t="n">
         <v>4.202831381173538e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>42</v>
+        <v>41.9375</v>
       </c>
       <c r="AH14" t="n">
-        <v>2132791.347135766</v>
+        <v>2395491.859456364</v>
       </c>
     </row>
     <row r="15">
@@ -19047,28 +19047,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1715.249877600633</v>
+        <v>1927.50553629853</v>
       </c>
       <c r="AB15" t="n">
-        <v>2346.88055401716</v>
+        <v>2637.298110306403</v>
       </c>
       <c r="AC15" t="n">
-        <v>2122.897567809307</v>
+        <v>2385.598080129904</v>
       </c>
       <c r="AD15" t="n">
-        <v>1715249.877600633</v>
+        <v>1927505.53629853</v>
       </c>
       <c r="AE15" t="n">
-        <v>2346880.55401716</v>
+        <v>2637298.110306403</v>
       </c>
       <c r="AF15" t="n">
         <v>4.207907775393376e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>42</v>
+        <v>41.8875</v>
       </c>
       <c r="AH15" t="n">
-        <v>2122897.567809307</v>
+        <v>2385598.080129904</v>
       </c>
     </row>
     <row r="16">
@@ -19153,28 +19153,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1721.00969863139</v>
+        <v>1933.265357329287</v>
       </c>
       <c r="AB16" t="n">
-        <v>2354.761395256812</v>
+        <v>2645.178951546054</v>
       </c>
       <c r="AC16" t="n">
-        <v>2130.026272621876</v>
+        <v>2392.726784942474</v>
       </c>
       <c r="AD16" t="n">
-        <v>1721009.69863139</v>
+        <v>1933265.357329287</v>
       </c>
       <c r="AE16" t="n">
-        <v>2354761.395256812</v>
+        <v>2645178.951546054</v>
       </c>
       <c r="AF16" t="n">
         <v>4.207907775393376e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>42</v>
+        <v>41.89166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2130026.272621876</v>
+        <v>2392726.784942474</v>
       </c>
     </row>
   </sheetData>
@@ -19450,28 +19450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10106.28857487565</v>
+        <v>10662.66767229526</v>
       </c>
       <c r="AB2" t="n">
-        <v>13827.86988613049</v>
+        <v>14589.13231293349</v>
       </c>
       <c r="AC2" t="n">
-        <v>12508.15739173496</v>
+        <v>13196.76600096237</v>
       </c>
       <c r="AD2" t="n">
-        <v>10106288.57487565</v>
+        <v>10662667.67229526</v>
       </c>
       <c r="AE2" t="n">
-        <v>13827869.88613049</v>
+        <v>14589132.31293349</v>
       </c>
       <c r="AF2" t="n">
         <v>1.449019681602561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>111</v>
+        <v>110.5833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12508157.39173496</v>
+        <v>13196766.00096237</v>
       </c>
     </row>
     <row r="3">
@@ -19556,28 +19556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3775.569776835275</v>
+        <v>4078.116175888697</v>
       </c>
       <c r="AB3" t="n">
-        <v>5165.901135049206</v>
+        <v>5579.858465639236</v>
       </c>
       <c r="AC3" t="n">
-        <v>4672.874781107696</v>
+        <v>5047.32460505896</v>
       </c>
       <c r="AD3" t="n">
-        <v>3775569.776835275</v>
+        <v>4078116.175888697</v>
       </c>
       <c r="AE3" t="n">
-        <v>5165901.135049206</v>
+        <v>5579858.465639235</v>
       </c>
       <c r="AF3" t="n">
         <v>2.615388231045387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.27083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>4672874.781107696</v>
+        <v>5047324.60505896</v>
       </c>
     </row>
     <row r="4">
@@ -19662,28 +19662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2971.15571039525</v>
+        <v>3234.718089349292</v>
       </c>
       <c r="AB4" t="n">
-        <v>4065.266321101925</v>
+        <v>4425.883995538395</v>
       </c>
       <c r="AC4" t="n">
-        <v>3677.283009052921</v>
+        <v>4003.483838771243</v>
       </c>
       <c r="AD4" t="n">
-        <v>2971155.71039525</v>
+        <v>3234718.089349292</v>
       </c>
       <c r="AE4" t="n">
-        <v>4065266.321101925</v>
+        <v>4425883.995538395</v>
       </c>
       <c r="AF4" t="n">
         <v>3.039557208966731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.71666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3677283.009052921</v>
+        <v>4003483.838771244</v>
       </c>
     </row>
     <row r="5">
@@ -19768,28 +19768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2662.80773868072</v>
+        <v>2906.777127873515</v>
       </c>
       <c r="AB5" t="n">
-        <v>3643.371022849647</v>
+        <v>3977.180704313073</v>
       </c>
       <c r="AC5" t="n">
-        <v>3295.652805932084</v>
+        <v>3597.604159901459</v>
       </c>
       <c r="AD5" t="n">
-        <v>2662807.73868072</v>
+        <v>2906777.127873515</v>
       </c>
       <c r="AE5" t="n">
-        <v>3643371.022849646</v>
+        <v>3977180.704313072</v>
       </c>
       <c r="AF5" t="n">
         <v>3.260678842969245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.14166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3295652.805932084</v>
+        <v>3597604.159901459</v>
       </c>
     </row>
     <row r="6">
@@ -19874,28 +19874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2484.014070013533</v>
+        <v>2718.220624229556</v>
       </c>
       <c r="AB6" t="n">
-        <v>3398.737637559218</v>
+        <v>3719.189377501544</v>
       </c>
       <c r="AC6" t="n">
-        <v>3074.366887588672</v>
+        <v>3364.235163227731</v>
       </c>
       <c r="AD6" t="n">
-        <v>2484014.070013532</v>
+        <v>2718220.624229556</v>
       </c>
       <c r="AE6" t="n">
-        <v>3398737.637559218</v>
+        <v>3719189.377501544</v>
       </c>
       <c r="AF6" t="n">
         <v>3.40296580745782e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.08750000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>3074366.887588672</v>
+        <v>3364235.163227731</v>
       </c>
     </row>
     <row r="7">
@@ -19980,28 +19980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2367.225503210882</v>
+        <v>2601.465211815829</v>
       </c>
       <c r="AB7" t="n">
-        <v>3238.94236811189</v>
+        <v>3559.439471351809</v>
       </c>
       <c r="AC7" t="n">
-        <v>2929.822254383333</v>
+        <v>3219.731563910532</v>
       </c>
       <c r="AD7" t="n">
-        <v>2367225.503210882</v>
+        <v>2601465.211815829</v>
       </c>
       <c r="AE7" t="n">
-        <v>3238942.36811189</v>
+        <v>3559439.471351809</v>
       </c>
       <c r="AF7" t="n">
         <v>3.495260054693651e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.84166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2929822.254383333</v>
+        <v>3219731.563910532</v>
       </c>
     </row>
     <row r="8">
@@ -20086,28 +20086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2286.245997746293</v>
+        <v>2520.45154093246</v>
       </c>
       <c r="AB8" t="n">
-        <v>3128.142636171592</v>
+        <v>3448.592992778263</v>
       </c>
       <c r="AC8" t="n">
-        <v>2829.597093351021</v>
+        <v>3119.464117678039</v>
       </c>
       <c r="AD8" t="n">
-        <v>2286245.997746293</v>
+        <v>2520451.54093246</v>
       </c>
       <c r="AE8" t="n">
-        <v>3128142.636171591</v>
+        <v>3448592.992778263</v>
       </c>
       <c r="AF8" t="n">
         <v>3.563327062030077e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.96666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2829597.09335102</v>
+        <v>3119464.117678039</v>
       </c>
     </row>
     <row r="9">
@@ -20192,28 +20192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2229.142478689383</v>
+        <v>2453.552032509854</v>
       </c>
       <c r="AB9" t="n">
-        <v>3050.011082168459</v>
+        <v>3357.058133956436</v>
       </c>
       <c r="AC9" t="n">
-        <v>2758.922305203625</v>
+        <v>3036.66521731219</v>
       </c>
       <c r="AD9" t="n">
-        <v>2229142.478689383</v>
+        <v>2453552.032509854</v>
       </c>
       <c r="AE9" t="n">
-        <v>3050011.082168459</v>
+        <v>3357058.133956436</v>
       </c>
       <c r="AF9" t="n">
         <v>3.617549932281128e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.29166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2758922.305203625</v>
+        <v>3036665.21731219</v>
       </c>
     </row>
     <row r="10">
@@ -20298,28 +20298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2172.917293803034</v>
+        <v>2397.394167431213</v>
       </c>
       <c r="AB10" t="n">
-        <v>2973.081303726688</v>
+        <v>3280.220465445681</v>
       </c>
       <c r="AC10" t="n">
-        <v>2689.33459684483</v>
+        <v>2967.160828041759</v>
       </c>
       <c r="AD10" t="n">
-        <v>2172917.293803034</v>
+        <v>2397394.167431213</v>
       </c>
       <c r="AE10" t="n">
-        <v>2973081.303726688</v>
+        <v>3280220.465445681</v>
       </c>
       <c r="AF10" t="n">
         <v>3.65869778417377e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.79583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2689334.59684483</v>
+        <v>2967160.828041759</v>
       </c>
     </row>
     <row r="11">
@@ -20404,28 +20404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2110.521141170953</v>
+        <v>2325.202025433437</v>
       </c>
       <c r="AB11" t="n">
-        <v>2887.708134971499</v>
+        <v>3181.443991871792</v>
       </c>
       <c r="AC11" t="n">
-        <v>2612.109323493641</v>
+        <v>2877.811442472115</v>
       </c>
       <c r="AD11" t="n">
-        <v>2110521.141170953</v>
+        <v>2325202.025433437</v>
       </c>
       <c r="AE11" t="n">
-        <v>2887708.134971499</v>
+        <v>3181443.991871792</v>
       </c>
       <c r="AF11" t="n">
         <v>3.717535366786613e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>2612109.323493641</v>
+        <v>2877811.442472115</v>
       </c>
     </row>
     <row r="12">
@@ -20510,28 +20510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2110.083813837405</v>
+        <v>2324.764698099888</v>
       </c>
       <c r="AB12" t="n">
-        <v>2887.109764420218</v>
+        <v>3180.845621320511</v>
       </c>
       <c r="AC12" t="n">
-        <v>2611.568060587956</v>
+        <v>2877.270179566429</v>
       </c>
       <c r="AD12" t="n">
-        <v>2110083.813837405</v>
+        <v>2324764.698099888</v>
       </c>
       <c r="AE12" t="n">
-        <v>2887109.764420218</v>
+        <v>3180845.621320511</v>
       </c>
       <c r="AF12" t="n">
         <v>3.710228738880443e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.1875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2611568.060587956</v>
+        <v>2877270.179566429</v>
       </c>
     </row>
     <row r="13">
@@ -20616,28 +20616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2064.816007955335</v>
+        <v>2279.564212025524</v>
       </c>
       <c r="AB13" t="n">
-        <v>2825.172355337721</v>
+        <v>3119.000322168853</v>
       </c>
       <c r="AC13" t="n">
-        <v>2555.541870898593</v>
+        <v>2821.327308965385</v>
       </c>
       <c r="AD13" t="n">
-        <v>2064816.007955336</v>
+        <v>2279564.212025524</v>
       </c>
       <c r="AE13" t="n">
-        <v>2825172.355337721</v>
+        <v>3119000.322168853</v>
       </c>
       <c r="AF13" t="n">
         <v>3.737147894324227e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2555541.870898593</v>
+        <v>2821327.308965385</v>
       </c>
     </row>
     <row r="14">
@@ -20722,28 +20722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2040.650293723484</v>
+        <v>2255.398497793672</v>
       </c>
       <c r="AB14" t="n">
-        <v>2792.107759009632</v>
+        <v>3085.935725840762</v>
       </c>
       <c r="AC14" t="n">
-        <v>2525.632913237605</v>
+        <v>2791.418351304396</v>
       </c>
       <c r="AD14" t="n">
-        <v>2040650.293723484</v>
+        <v>2255398.497793672</v>
       </c>
       <c r="AE14" t="n">
-        <v>2792107.759009632</v>
+        <v>3085935.725840762</v>
       </c>
       <c r="AF14" t="n">
         <v>3.755606743771394e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2525632.913237605</v>
+        <v>2791418.351304396</v>
       </c>
     </row>
     <row r="15">
@@ -20828,28 +20828,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2013.463445824925</v>
+        <v>2228.110164668628</v>
       </c>
       <c r="AB15" t="n">
-        <v>2754.909514315745</v>
+        <v>3048.598624582782</v>
       </c>
       <c r="AC15" t="n">
-        <v>2491.984816809237</v>
+        <v>2757.644650587529</v>
       </c>
       <c r="AD15" t="n">
-        <v>2013463.445824925</v>
+        <v>2228110.164668628</v>
       </c>
       <c r="AE15" t="n">
-        <v>2754909.514315745</v>
+        <v>3048598.624582782</v>
       </c>
       <c r="AF15" t="n">
         <v>3.774834711945526e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.45</v>
       </c>
       <c r="AH15" t="n">
-        <v>2491984.816809237</v>
+        <v>2757644.650587529</v>
       </c>
     </row>
     <row r="16">
@@ -20934,28 +20934,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1986.471712554869</v>
+        <v>2201.118431398572</v>
       </c>
       <c r="AB16" t="n">
-        <v>2717.978234064424</v>
+        <v>3011.667344331459</v>
       </c>
       <c r="AC16" t="n">
-        <v>2458.578206111725</v>
+        <v>2724.238039890016</v>
       </c>
       <c r="AD16" t="n">
-        <v>1986471.712554869</v>
+        <v>2201118.431398572</v>
       </c>
       <c r="AE16" t="n">
-        <v>2717978.234064424</v>
+        <v>3011667.344331459</v>
       </c>
       <c r="AF16" t="n">
         <v>3.791370764575279e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.2625</v>
       </c>
       <c r="AH16" t="n">
-        <v>2458578.206111725</v>
+        <v>2724238.039890016</v>
       </c>
     </row>
     <row r="17">
@@ -21040,28 +21040,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1961.612254354951</v>
+        <v>2166.564469059442</v>
       </c>
       <c r="AB17" t="n">
-        <v>2683.964426633403</v>
+        <v>2964.389088645658</v>
       </c>
       <c r="AC17" t="n">
-        <v>2427.810628723242</v>
+        <v>2681.471954571532</v>
       </c>
       <c r="AD17" t="n">
-        <v>1961612.254354951</v>
+        <v>2166564.469059442</v>
       </c>
       <c r="AE17" t="n">
-        <v>2683964.426633404</v>
+        <v>2964389.088645658</v>
       </c>
       <c r="AF17" t="n">
         <v>3.803676664206723e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.125</v>
       </c>
       <c r="AH17" t="n">
-        <v>2427810.628723242</v>
+        <v>2681471.954571533</v>
       </c>
     </row>
     <row r="18">
@@ -21146,28 +21146,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1929.566134658357</v>
+        <v>2144.280173309762</v>
       </c>
       <c r="AB18" t="n">
-        <v>2640.117511889501</v>
+        <v>2933.898732087202</v>
       </c>
       <c r="AC18" t="n">
-        <v>2388.148401982967</v>
+        <v>2653.891554849531</v>
       </c>
       <c r="AD18" t="n">
-        <v>1929566.134658357</v>
+        <v>2144280.173309762</v>
       </c>
       <c r="AE18" t="n">
-        <v>2640117.511889501</v>
+        <v>2933898.732087202</v>
       </c>
       <c r="AF18" t="n">
         <v>3.81636712320165e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>42</v>
+        <v>41.98333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2388148.401982967</v>
+        <v>2653891.554849531</v>
       </c>
     </row>
     <row r="19">
@@ -21252,28 +21252,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1912.971081289066</v>
+        <v>2127.685119940471</v>
       </c>
       <c r="AB19" t="n">
-        <v>2617.411427747553</v>
+        <v>2911.192647945254</v>
       </c>
       <c r="AC19" t="n">
-        <v>2367.609354643338</v>
+        <v>2633.352507509901</v>
       </c>
       <c r="AD19" t="n">
-        <v>1912971.081289066</v>
+        <v>2127685.119940471</v>
       </c>
       <c r="AE19" t="n">
-        <v>2617411.427747553</v>
+        <v>2911192.647945254</v>
       </c>
       <c r="AF19" t="n">
         <v>3.820981835563442e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>42</v>
+        <v>41.93333333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2367609.354643337</v>
+        <v>2633352.507509902</v>
       </c>
     </row>
     <row r="20">
@@ -21358,28 +21358,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1895.956760937827</v>
+        <v>2110.670799589232</v>
       </c>
       <c r="AB20" t="n">
-        <v>2594.13168402415</v>
+        <v>2887.912904221851</v>
       </c>
       <c r="AC20" t="n">
-        <v>2346.551396987571</v>
+        <v>2612.294549854135</v>
       </c>
       <c r="AD20" t="n">
-        <v>1895956.760937827</v>
+        <v>2110670.799589232</v>
       </c>
       <c r="AE20" t="n">
-        <v>2594131.68402415</v>
+        <v>2887912.904221851</v>
       </c>
       <c r="AF20" t="n">
         <v>3.829442141560059e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>42</v>
+        <v>41.84166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2346551.39698757</v>
+        <v>2612294.549854135</v>
       </c>
     </row>
     <row r="21">
@@ -21464,28 +21464,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1884.265448554759</v>
+        <v>2098.979487206163</v>
       </c>
       <c r="AB21" t="n">
-        <v>2578.135114637336</v>
+        <v>2871.916334835036</v>
       </c>
       <c r="AC21" t="n">
-        <v>2332.081517731708</v>
+        <v>2597.824670598272</v>
       </c>
       <c r="AD21" t="n">
-        <v>1884265.448554759</v>
+        <v>2098979.487206163</v>
       </c>
       <c r="AE21" t="n">
-        <v>2578135.114637336</v>
+        <v>2871916.334835036</v>
       </c>
       <c r="AF21" t="n">
         <v>3.836364210102747e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>42</v>
+        <v>41.76666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2332081.517731708</v>
+        <v>2597824.670598272</v>
       </c>
     </row>
     <row r="22">
@@ -21570,28 +21570,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1889.024301438575</v>
+        <v>2103.738340089979</v>
       </c>
       <c r="AB22" t="n">
-        <v>2584.646387098745</v>
+        <v>2878.427607296446</v>
       </c>
       <c r="AC22" t="n">
-        <v>2337.971363488029</v>
+        <v>2603.714516354592</v>
       </c>
       <c r="AD22" t="n">
-        <v>1889024.301438575</v>
+        <v>2103738.34008998</v>
       </c>
       <c r="AE22" t="n">
-        <v>2584646.387098745</v>
+        <v>2878427.607296446</v>
       </c>
       <c r="AF22" t="n">
         <v>3.836748769466229e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>42</v>
+        <v>41.7625</v>
       </c>
       <c r="AH22" t="n">
-        <v>2337971.363488029</v>
+        <v>2603714.516354593</v>
       </c>
     </row>
     <row r="23">
@@ -21676,28 +21676,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1894.660593146976</v>
+        <v>2109.374631798381</v>
       </c>
       <c r="AB23" t="n">
-        <v>2592.358210069821</v>
+        <v>2886.139430267522</v>
       </c>
       <c r="AC23" t="n">
-        <v>2344.947180898356</v>
+        <v>2610.69033376492</v>
       </c>
       <c r="AD23" t="n">
-        <v>1894660.593146976</v>
+        <v>2109374.631798381</v>
       </c>
       <c r="AE23" t="n">
-        <v>2592358.210069821</v>
+        <v>2886139.430267522</v>
       </c>
       <c r="AF23" t="n">
         <v>3.836364210102747e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>42</v>
+        <v>41.76666666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>2344947.180898356</v>
+        <v>2610690.33376492</v>
       </c>
     </row>
   </sheetData>
@@ -21973,28 +21973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4037.59351427744</v>
+        <v>4389.755637040503</v>
       </c>
       <c r="AB2" t="n">
-        <v>5524.413572289052</v>
+        <v>6006.257324949864</v>
       </c>
       <c r="AC2" t="n">
-        <v>4997.171294512722</v>
+        <v>5433.028555691521</v>
       </c>
       <c r="AD2" t="n">
-        <v>4037593.51427744</v>
+        <v>4389755.637040502</v>
       </c>
       <c r="AE2" t="n">
-        <v>5524413.572289052</v>
+        <v>6006257.324949863</v>
       </c>
       <c r="AF2" t="n">
         <v>2.781058062712852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.82916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4997171.294512722</v>
+        <v>5433028.555691522</v>
       </c>
     </row>
     <row r="3">
@@ -22079,28 +22079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2341.502328783763</v>
+        <v>2598.467031654765</v>
       </c>
       <c r="AB3" t="n">
-        <v>3203.74678603434</v>
+        <v>3555.337228985068</v>
       </c>
       <c r="AC3" t="n">
-        <v>2897.985689261956</v>
+        <v>3216.020833797739</v>
       </c>
       <c r="AD3" t="n">
-        <v>2341502.328783763</v>
+        <v>2598467.031654765</v>
       </c>
       <c r="AE3" t="n">
-        <v>3203746.78603434</v>
+        <v>3555337.228985067</v>
       </c>
       <c r="AF3" t="n">
         <v>3.858771995651741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.77083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2897985.689261957</v>
+        <v>3216020.833797739</v>
       </c>
     </row>
     <row r="4">
@@ -22185,28 +22185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2005.920074247567</v>
+        <v>2234.29239676203</v>
       </c>
       <c r="AB4" t="n">
-        <v>2744.588340533536</v>
+        <v>3057.057427273805</v>
       </c>
       <c r="AC4" t="n">
-        <v>2482.648681366944</v>
+        <v>2765.296157021724</v>
       </c>
       <c r="AD4" t="n">
-        <v>2005920.074247567</v>
+        <v>2234292.39676203</v>
       </c>
       <c r="AE4" t="n">
-        <v>2744588.340533536</v>
+        <v>3057057.427273805</v>
       </c>
       <c r="AF4" t="n">
         <v>4.232711883415234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.19166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2482648.681366944</v>
+        <v>2765296.157021725</v>
       </c>
     </row>
     <row r="5">
@@ -22291,28 +22291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1849.364779443768</v>
+        <v>2068.217359969022</v>
       </c>
       <c r="AB5" t="n">
-        <v>2530.382479450825</v>
+        <v>2829.826235219909</v>
       </c>
       <c r="AC5" t="n">
-        <v>2288.886327026153</v>
+        <v>2559.751591016585</v>
       </c>
       <c r="AD5" t="n">
-        <v>1849364.779443768</v>
+        <v>2068217.359969022</v>
       </c>
       <c r="AE5" t="n">
-        <v>2530382.479450825</v>
+        <v>2829826.235219908</v>
       </c>
       <c r="AF5" t="n">
         <v>4.424955338534671e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.14166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2288886.327026153</v>
+        <v>2559751.591016585</v>
       </c>
     </row>
     <row r="6">
@@ -22397,28 +22397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1740.354829296233</v>
+        <v>1959.240564210411</v>
       </c>
       <c r="AB6" t="n">
-        <v>2381.230256479383</v>
+        <v>2680.719375546059</v>
       </c>
       <c r="AC6" t="n">
-        <v>2153.968982878645</v>
+        <v>2424.875280757217</v>
       </c>
       <c r="AD6" t="n">
-        <v>1740354.829296233</v>
+        <v>1959240.564210411</v>
       </c>
       <c r="AE6" t="n">
-        <v>2381230.256479383</v>
+        <v>2680719.375546059</v>
       </c>
       <c r="AF6" t="n">
         <v>4.546246097001547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2153968.982878645</v>
+        <v>2424875.280757217</v>
       </c>
     </row>
     <row r="7">
@@ -22503,28 +22503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1675.35196122923</v>
+        <v>1884.684799765278</v>
       </c>
       <c r="AB7" t="n">
-        <v>2292.290464665963</v>
+        <v>2578.708889464039</v>
       </c>
       <c r="AC7" t="n">
-        <v>2073.517479968116</v>
+        <v>2332.600532294247</v>
       </c>
       <c r="AD7" t="n">
-        <v>1675351.96122923</v>
+        <v>1884684.799765278</v>
       </c>
       <c r="AE7" t="n">
-        <v>2292290.464665963</v>
+        <v>2578708.889464039</v>
       </c>
       <c r="AF7" t="n">
         <v>4.627745816129488e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.16666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2073517.479968116</v>
+        <v>2332600.532294247</v>
       </c>
     </row>
     <row r="8">
@@ -22609,28 +22609,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1646.787090943186</v>
+        <v>1856.119929479234</v>
       </c>
       <c r="AB8" t="n">
-        <v>2253.20674894746</v>
+        <v>2539.625173745536</v>
       </c>
       <c r="AC8" t="n">
-        <v>2038.163859223448</v>
+        <v>2297.246911549579</v>
       </c>
       <c r="AD8" t="n">
-        <v>1646787.090943186</v>
+        <v>1856119.929479234</v>
       </c>
       <c r="AE8" t="n">
-        <v>2253206.74894746</v>
+        <v>2539625.173745536</v>
       </c>
       <c r="AF8" t="n">
         <v>4.640689889167455e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.04583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2038163.859223448</v>
+        <v>2297246.911549579</v>
       </c>
     </row>
     <row r="9">
@@ -22715,28 +22715,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1568.460024172921</v>
+        <v>1777.758697290189</v>
       </c>
       <c r="AB9" t="n">
-        <v>2146.036200646079</v>
+        <v>2432.407878810907</v>
       </c>
       <c r="AC9" t="n">
-        <v>1941.221517637141</v>
+        <v>2200.262284763092</v>
       </c>
       <c r="AD9" t="n">
-        <v>1568460.024172921</v>
+        <v>1777758.697290189</v>
       </c>
       <c r="AE9" t="n">
-        <v>2146036.200646079</v>
+        <v>2432407.878810907</v>
       </c>
       <c r="AF9" t="n">
         <v>4.718354327395257e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.33333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1941221.517637141</v>
+        <v>2200262.284763092</v>
       </c>
     </row>
     <row r="10">
@@ -22821,28 +22821,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1555.515683087432</v>
+        <v>1755.362945053055</v>
       </c>
       <c r="AB10" t="n">
-        <v>2128.325182108887</v>
+        <v>2401.765022569203</v>
       </c>
       <c r="AC10" t="n">
-        <v>1925.200813851569</v>
+        <v>2172.543939713579</v>
       </c>
       <c r="AD10" t="n">
-        <v>1555515.683087432</v>
+        <v>1755362.945053055</v>
       </c>
       <c r="AE10" t="n">
-        <v>2128325.182108887</v>
+        <v>2401765.022569203</v>
       </c>
       <c r="AF10" t="n">
         <v>4.737051321783432e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.17083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1925200.813851569</v>
+        <v>2172543.939713579</v>
       </c>
     </row>
     <row r="11">
@@ -22927,28 +22927,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1561.927842846578</v>
+        <v>1761.775104812201</v>
       </c>
       <c r="AB11" t="n">
-        <v>2137.098581975875</v>
+        <v>2410.538422436191</v>
       </c>
       <c r="AC11" t="n">
-        <v>1933.136892748795</v>
+        <v>2180.480018610805</v>
       </c>
       <c r="AD11" t="n">
-        <v>1561927.842846578</v>
+        <v>1761775.104812201</v>
       </c>
       <c r="AE11" t="n">
-        <v>2137098.581975875</v>
+        <v>2410538.422436191</v>
       </c>
       <c r="AF11" t="n">
         <v>4.736571911670915e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.175</v>
       </c>
       <c r="AH11" t="n">
-        <v>1933136.892748795</v>
+        <v>2180480.018610805</v>
       </c>
     </row>
   </sheetData>
@@ -23224,28 +23224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2845.859796609525</v>
+        <v>3146.554013760957</v>
       </c>
       <c r="AB2" t="n">
-        <v>3893.830924194694</v>
+        <v>4305.254017793922</v>
       </c>
       <c r="AC2" t="n">
-        <v>3522.20916581543</v>
+        <v>3894.366616797472</v>
       </c>
       <c r="AD2" t="n">
-        <v>2845859.796609525</v>
+        <v>3146554.013760957</v>
       </c>
       <c r="AE2" t="n">
-        <v>3893830.924194694</v>
+        <v>4305254.017793922</v>
       </c>
       <c r="AF2" t="n">
         <v>3.649594859397557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.23333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3522209.16581543</v>
+        <v>3894366.616797471</v>
       </c>
     </row>
     <row r="3">
@@ -23330,28 +23330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1874.659075419439</v>
+        <v>2109.648244216829</v>
       </c>
       <c r="AB3" t="n">
-        <v>2564.99125111032</v>
+        <v>2886.51379884937</v>
       </c>
       <c r="AC3" t="n">
-        <v>2320.192086092182</v>
+        <v>2611.028973134747</v>
       </c>
       <c r="AD3" t="n">
-        <v>1874659.075419439</v>
+        <v>2109648.244216829</v>
       </c>
       <c r="AE3" t="n">
-        <v>2564991.25111032</v>
+        <v>2886513.79884937</v>
       </c>
       <c r="AF3" t="n">
         <v>4.668428734261491e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.65000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>2320192.086092182</v>
+        <v>2611028.973134747</v>
       </c>
     </row>
     <row r="4">
@@ -23436,28 +23436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1642.213538420923</v>
+        <v>1858.333520673315</v>
       </c>
       <c r="AB4" t="n">
-        <v>2246.949012615603</v>
+        <v>2542.653906874029</v>
       </c>
       <c r="AC4" t="n">
-        <v>2032.503352464316</v>
+        <v>2299.986586639142</v>
       </c>
       <c r="AD4" t="n">
-        <v>1642213.538420923</v>
+        <v>1858333.520673315</v>
       </c>
       <c r="AE4" t="n">
-        <v>2246949.012615603</v>
+        <v>2542653.906874029</v>
       </c>
       <c r="AF4" t="n">
         <v>5.020577842427409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.24166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2032503.352464316</v>
+        <v>2299986.586639142</v>
       </c>
     </row>
     <row r="5">
@@ -23542,28 +23542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1514.207105129532</v>
+        <v>1730.360241770847</v>
       </c>
       <c r="AB5" t="n">
-        <v>2071.804963341048</v>
+        <v>2367.555220897066</v>
       </c>
       <c r="AC5" t="n">
-        <v>1874.074805436307</v>
+        <v>2141.599073499272</v>
       </c>
       <c r="AD5" t="n">
-        <v>1514207.105129532</v>
+        <v>1730360.241770847</v>
       </c>
       <c r="AE5" t="n">
-        <v>2071804.963341048</v>
+        <v>2367555.220897066</v>
       </c>
       <c r="AF5" t="n">
         <v>5.20210362109498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.6625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1874074.805436307</v>
+        <v>2141599.073499273</v>
       </c>
     </row>
     <row r="6">
@@ -23648,28 +23648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1432.458426456661</v>
+        <v>1639.24479514811</v>
       </c>
       <c r="AB6" t="n">
-        <v>1959.952814683657</v>
+        <v>2242.887047098031</v>
       </c>
       <c r="AC6" t="n">
-        <v>1772.8976688613</v>
+        <v>2028.829055234735</v>
       </c>
       <c r="AD6" t="n">
-        <v>1432458.426456661</v>
+        <v>1639244.79514811</v>
       </c>
       <c r="AE6" t="n">
-        <v>1959952.814683657</v>
+        <v>2242887.047098031</v>
       </c>
       <c r="AF6" t="n">
         <v>5.307857378036448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.79166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1772897.6688613</v>
+        <v>2028829.055234735</v>
       </c>
     </row>
     <row r="7">
@@ -23754,28 +23754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1417.73363217596</v>
+        <v>1624.520000867409</v>
       </c>
       <c r="AB7" t="n">
-        <v>1939.805701536726</v>
+        <v>2222.739933951099</v>
       </c>
       <c r="AC7" t="n">
-        <v>1754.673367916461</v>
+        <v>2010.604754289897</v>
       </c>
       <c r="AD7" t="n">
-        <v>1417733.63217596</v>
+        <v>1624520.000867409</v>
       </c>
       <c r="AE7" t="n">
-        <v>1939805.701536726</v>
+        <v>2222739.933951099</v>
       </c>
       <c r="AF7" t="n">
         <v>5.328572031457972e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1754673.367916461</v>
+        <v>2010604.754289897</v>
       </c>
     </row>
     <row r="8">
@@ -23860,28 +23860,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1424.543615598634</v>
+        <v>1631.329984290083</v>
       </c>
       <c r="AB8" t="n">
-        <v>1949.123421290893</v>
+        <v>2232.057653705267</v>
       </c>
       <c r="AC8" t="n">
-        <v>1763.101817574793</v>
+        <v>2019.033203948228</v>
       </c>
       <c r="AD8" t="n">
-        <v>1424543.615598634</v>
+        <v>1631329.984290083</v>
       </c>
       <c r="AE8" t="n">
-        <v>1949123.421290893</v>
+        <v>2232057.653705267</v>
       </c>
       <c r="AF8" t="n">
         <v>5.329117153916433e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.62083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1763101.817574793</v>
+        <v>2019033.203948228</v>
       </c>
     </row>
   </sheetData>
@@ -44738,28 +44738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2182.779767460635</v>
+        <v>2452.618657153774</v>
       </c>
       <c r="AB2" t="n">
-        <v>2986.575575286647</v>
+        <v>3355.781048616631</v>
       </c>
       <c r="AC2" t="n">
-        <v>2701.540994066435</v>
+        <v>3035.510015204816</v>
       </c>
       <c r="AD2" t="n">
-        <v>2182779.767460634</v>
+        <v>2452618.657153774</v>
       </c>
       <c r="AE2" t="n">
-        <v>2986575.575286647</v>
+        <v>3355781.048616631</v>
       </c>
       <c r="AF2" t="n">
         <v>4.51188324039052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.5375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2701540.994066435</v>
+        <v>3035510.015204816</v>
       </c>
     </row>
     <row r="3">
@@ -44844,28 +44844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1555.243689817225</v>
+        <v>1778.552742422099</v>
       </c>
       <c r="AB3" t="n">
-        <v>2127.953028917093</v>
+        <v>2433.494326391185</v>
       </c>
       <c r="AC3" t="n">
-        <v>1924.864178438079</v>
+        <v>2201.245043311148</v>
       </c>
       <c r="AD3" t="n">
-        <v>1555243.689817225</v>
+        <v>1778552.742422099</v>
       </c>
       <c r="AE3" t="n">
-        <v>2127953.028917093</v>
+        <v>2433494.326391185</v>
       </c>
       <c r="AF3" t="n">
         <v>5.479152646064471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.55416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1924864.178438079</v>
+        <v>2201245.043311148</v>
       </c>
     </row>
     <row r="4">
@@ -44950,28 +44950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1370.49143568662</v>
+        <v>1584.460355455061</v>
       </c>
       <c r="AB4" t="n">
-        <v>1875.166844121395</v>
+        <v>2167.928559791099</v>
       </c>
       <c r="AC4" t="n">
-        <v>1696.203552331643</v>
+        <v>1961.02450075148</v>
       </c>
       <c r="AD4" t="n">
-        <v>1370491.435686619</v>
+        <v>1584460.355455061</v>
       </c>
       <c r="AE4" t="n">
-        <v>1875166.844121395</v>
+        <v>2167928.559791099</v>
       </c>
       <c r="AF4" t="n">
         <v>5.808514000654715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.9125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1696203.552331643</v>
+        <v>1961024.50075148</v>
       </c>
     </row>
     <row r="5">
@@ -45056,28 +45056,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1324.550632552482</v>
+        <v>1529.180430514347</v>
       </c>
       <c r="AB5" t="n">
-        <v>1812.308610508075</v>
+        <v>2092.292127709047</v>
       </c>
       <c r="AC5" t="n">
-        <v>1639.344420312294</v>
+        <v>1892.606703590939</v>
       </c>
       <c r="AD5" t="n">
-        <v>1324550.632552481</v>
+        <v>1529180.430514347</v>
       </c>
       <c r="AE5" t="n">
-        <v>1812308.610508075</v>
+        <v>2092292.127709047</v>
       </c>
       <c r="AF5" t="n">
         <v>5.8978945913056e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>1639344.420312294</v>
+        <v>1892606.703590939</v>
       </c>
     </row>
     <row r="6">
@@ -45162,28 +45162,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1331.851718740929</v>
+        <v>1536.481516702795</v>
       </c>
       <c r="AB6" t="n">
-        <v>1822.298278732299</v>
+        <v>2102.281795933271</v>
       </c>
       <c r="AC6" t="n">
-        <v>1648.380688621785</v>
+        <v>1901.64297190043</v>
       </c>
       <c r="AD6" t="n">
-        <v>1331851.718740929</v>
+        <v>1536481.516702794</v>
       </c>
       <c r="AE6" t="n">
-        <v>1822298.278732298</v>
+        <v>2102281.79593327</v>
       </c>
       <c r="AF6" t="n">
         <v>5.897282395479224e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.25416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1648380.688621785</v>
+        <v>1901642.971900431</v>
       </c>
     </row>
   </sheetData>
@@ -45459,28 +45459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1252.573958935671</v>
+        <v>1480.448514402833</v>
       </c>
       <c r="AB2" t="n">
-        <v>1713.826950278822</v>
+        <v>2025.614970184867</v>
       </c>
       <c r="AC2" t="n">
-        <v>1550.261711515442</v>
+        <v>1832.293120398889</v>
       </c>
       <c r="AD2" t="n">
-        <v>1252573.958935671</v>
+        <v>1480448.514402833</v>
       </c>
       <c r="AE2" t="n">
-        <v>1713826.950278822</v>
+        <v>2025614.970184867</v>
       </c>
       <c r="AF2" t="n">
         <v>7.036974622961055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.94166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1550261.711515442</v>
+        <v>1832293.120398889</v>
       </c>
     </row>
     <row r="3">
@@ -45565,28 +45565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1152.515409644687</v>
+        <v>1371.27224965966</v>
       </c>
       <c r="AB3" t="n">
-        <v>1576.922428867247</v>
+        <v>1876.23518824639</v>
       </c>
       <c r="AC3" t="n">
-        <v>1426.423165480685</v>
+        <v>1697.16993519278</v>
       </c>
       <c r="AD3" t="n">
-        <v>1152515.409644687</v>
+        <v>1371272.24965966</v>
       </c>
       <c r="AE3" t="n">
-        <v>1576922.428867247</v>
+        <v>1876235.18824639</v>
       </c>
       <c r="AF3" t="n">
         <v>7.366516525106395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.79583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1426423.165480685</v>
+        <v>1697169.93519278</v>
       </c>
     </row>
   </sheetData>
@@ -45862,28 +45862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5644.447482791002</v>
+        <v>6057.956379992293</v>
       </c>
       <c r="AB2" t="n">
-        <v>7722.982061403402</v>
+        <v>8288.763177279281</v>
       </c>
       <c r="AC2" t="n">
-        <v>6985.91149273617</v>
+        <v>7497.695252991617</v>
       </c>
       <c r="AD2" t="n">
-        <v>5644447.482791002</v>
+        <v>6057956.379992293</v>
       </c>
       <c r="AE2" t="n">
-        <v>7722982.061403401</v>
+        <v>8288763.17727928</v>
       </c>
       <c r="AF2" t="n">
         <v>2.172680133319252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6985911.49273617</v>
+        <v>7497695.252991617</v>
       </c>
     </row>
     <row r="3">
@@ -45968,28 +45968,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2841.328695144655</v>
+        <v>3110.599395300251</v>
       </c>
       <c r="AB3" t="n">
-        <v>3887.631271272369</v>
+        <v>4256.059322610163</v>
       </c>
       <c r="AC3" t="n">
-        <v>3516.601199066746</v>
+        <v>3849.866994276864</v>
       </c>
       <c r="AD3" t="n">
-        <v>2841328.695144655</v>
+        <v>3110599.395300251</v>
       </c>
       <c r="AE3" t="n">
-        <v>3887631.271272369</v>
+        <v>4256059.322610163</v>
       </c>
       <c r="AF3" t="n">
         <v>3.290120626311676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.08750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>3516601.199066746</v>
+        <v>3849866.994276864</v>
       </c>
     </row>
     <row r="4">
@@ -46074,28 +46074,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2356.558839745217</v>
+        <v>2596.968234324162</v>
       </c>
       <c r="AB4" t="n">
-        <v>3224.347768578187</v>
+        <v>3553.286508355065</v>
       </c>
       <c r="AC4" t="n">
-        <v>2916.620542945478</v>
+        <v>3214.165831066459</v>
       </c>
       <c r="AD4" t="n">
-        <v>2356558.839745217</v>
+        <v>2596968.234324162</v>
       </c>
       <c r="AE4" t="n">
-        <v>3224347.768578187</v>
+        <v>3553286.508355065</v>
       </c>
       <c r="AF4" t="n">
         <v>3.688989031167282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.13333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2916620.542945478</v>
+        <v>3214165.831066459</v>
       </c>
     </row>
     <row r="5">
@@ -46180,28 +46180,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2148.829788132317</v>
+        <v>2379.686067326752</v>
       </c>
       <c r="AB5" t="n">
-        <v>2940.123715802262</v>
+        <v>3255.991461656516</v>
       </c>
       <c r="AC5" t="n">
-        <v>2659.522434855645</v>
+        <v>2945.244206368612</v>
       </c>
       <c r="AD5" t="n">
-        <v>2148829.788132317</v>
+        <v>2379686.067326752</v>
       </c>
       <c r="AE5" t="n">
-        <v>2940123.715802262</v>
+        <v>3255991.461656515</v>
       </c>
       <c r="AF5" t="n">
         <v>3.890815574082224e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.57916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2659522.434855646</v>
+        <v>2945244.206368612</v>
       </c>
     </row>
     <row r="6">
@@ -46286,28 +46286,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2034.370353504068</v>
+        <v>2255.538877698581</v>
       </c>
       <c r="AB6" t="n">
-        <v>2783.515267750019</v>
+        <v>3086.127799819782</v>
       </c>
       <c r="AC6" t="n">
-        <v>2517.860477284172</v>
+        <v>2791.592094012437</v>
       </c>
       <c r="AD6" t="n">
-        <v>2034370.353504068</v>
+        <v>2255538.877698581</v>
       </c>
       <c r="AE6" t="n">
-        <v>2783515.267750019</v>
+        <v>3086127.799819782</v>
       </c>
       <c r="AF6" t="n">
         <v>4.014782308415755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.14166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2517860.477284172</v>
+        <v>2791592.094012436</v>
       </c>
     </row>
     <row r="7">
@@ -46392,28 +46392,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1945.702662265692</v>
+        <v>2157.284916686766</v>
       </c>
       <c r="AB7" t="n">
-        <v>2662.196220855212</v>
+        <v>2951.692395704405</v>
       </c>
       <c r="AC7" t="n">
-        <v>2408.119949952653</v>
+        <v>2669.987016184672</v>
       </c>
       <c r="AD7" t="n">
-        <v>1945702.662265692</v>
+        <v>2157284.916686766</v>
       </c>
       <c r="AE7" t="n">
-        <v>2662196.220855212</v>
+        <v>2951692.395704404</v>
       </c>
       <c r="AF7" t="n">
         <v>4.106561188922334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.13333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2408119.949952653</v>
+        <v>2669987.016184672</v>
       </c>
     </row>
     <row r="8">
@@ -46498,28 +46498,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1882.157487561909</v>
+        <v>2093.807061790687</v>
       </c>
       <c r="AB8" t="n">
-        <v>2575.250909410244</v>
+        <v>2864.839194190278</v>
       </c>
       <c r="AC8" t="n">
-        <v>2329.472577003482</v>
+        <v>2591.42296232382</v>
       </c>
       <c r="AD8" t="n">
-        <v>1882157.487561909</v>
+        <v>2093807.061790687</v>
       </c>
       <c r="AE8" t="n">
-        <v>2575250.909410244</v>
+        <v>2864839.194190278</v>
       </c>
       <c r="AF8" t="n">
         <v>4.164847302608976e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.51666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2329472.577003482</v>
+        <v>2591422.96232382</v>
       </c>
     </row>
     <row r="9">
@@ -46604,28 +46604,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1801.636302602273</v>
+        <v>2013.251711412271</v>
       </c>
       <c r="AB9" t="n">
-        <v>2465.078271804501</v>
+        <v>2754.619809951288</v>
       </c>
       <c r="AC9" t="n">
-        <v>2229.814661302563</v>
+        <v>2491.722761422721</v>
       </c>
       <c r="AD9" t="n">
-        <v>1801636.302602273</v>
+        <v>2013251.711412271</v>
       </c>
       <c r="AE9" t="n">
-        <v>2465078.271804501</v>
+        <v>2754619.809951288</v>
       </c>
       <c r="AF9" t="n">
         <v>4.245316937176356e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.69166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2229814.661302563</v>
+        <v>2491722.761422721</v>
       </c>
     </row>
     <row r="10">
@@ -46710,28 +46710,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1788.002501662338</v>
+        <v>1999.617910472336</v>
       </c>
       <c r="AB10" t="n">
-        <v>2446.423903877635</v>
+        <v>2735.965442024422</v>
       </c>
       <c r="AC10" t="n">
-        <v>2212.940640069067</v>
+        <v>2474.848740189225</v>
       </c>
       <c r="AD10" t="n">
-        <v>1788002.501662338</v>
+        <v>1999617.910472336</v>
       </c>
       <c r="AE10" t="n">
-        <v>2446423.903877635</v>
+        <v>2735965.442024422</v>
       </c>
       <c r="AF10" t="n">
         <v>4.244012024183372e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.70416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2212940.640069067</v>
+        <v>2474848.740189225</v>
       </c>
     </row>
     <row r="11">
@@ -46816,28 +46816,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1749.428632801557</v>
+        <v>1960.94255638507</v>
       </c>
       <c r="AB11" t="n">
-        <v>2393.645434743325</v>
+        <v>2683.048116326022</v>
       </c>
       <c r="AC11" t="n">
-        <v>2165.199273953889</v>
+        <v>2426.981769785549</v>
       </c>
       <c r="AD11" t="n">
-        <v>1749428.632801557</v>
+        <v>1960942.55638507</v>
       </c>
       <c r="AE11" t="n">
-        <v>2393645.434743325</v>
+        <v>2683048.116326022</v>
       </c>
       <c r="AF11" t="n">
         <v>4.274025023022016e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.40416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>2165199.273953889</v>
+        <v>2426981.769785549</v>
       </c>
     </row>
     <row r="12">
@@ -46922,28 +46922,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1711.534836728185</v>
+        <v>1913.496655957042</v>
       </c>
       <c r="AB12" t="n">
-        <v>2341.797471199441</v>
+        <v>2618.130542194996</v>
       </c>
       <c r="AC12" t="n">
-        <v>2118.299607281559</v>
+        <v>2368.2598378172</v>
       </c>
       <c r="AD12" t="n">
-        <v>1711534.836728185</v>
+        <v>1913496.655957042</v>
       </c>
       <c r="AE12" t="n">
-        <v>2341797.471199441</v>
+        <v>2618130.542194996</v>
       </c>
       <c r="AF12" t="n">
         <v>4.30099322487703e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.1375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2118299.607281559</v>
+        <v>2368259.8378172</v>
       </c>
     </row>
     <row r="13">
@@ -47028,28 +47028,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1687.48787875191</v>
+        <v>1889.449697980767</v>
       </c>
       <c r="AB13" t="n">
-        <v>2308.895362419389</v>
+        <v>2585.228433414944</v>
       </c>
       <c r="AC13" t="n">
-        <v>2088.537629585076</v>
+        <v>2338.497860120715</v>
       </c>
       <c r="AD13" t="n">
-        <v>1687487.87875191</v>
+        <v>1889449.697980767</v>
       </c>
       <c r="AE13" t="n">
-        <v>2308895.362419389</v>
+        <v>2585228.433414944</v>
       </c>
       <c r="AF13" t="n">
         <v>4.314042354806875e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.0125</v>
       </c>
       <c r="AH13" t="n">
-        <v>2088537.629585076</v>
+        <v>2338497.860120716</v>
       </c>
     </row>
     <row r="14">
@@ -47134,28 +47134,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1673.881598243377</v>
+        <v>1885.462841634594</v>
       </c>
       <c r="AB14" t="n">
-        <v>2290.278649160883</v>
+        <v>2579.773440674421</v>
       </c>
       <c r="AC14" t="n">
-        <v>2071.69766931124</v>
+        <v>2333.563484231219</v>
       </c>
       <c r="AD14" t="n">
-        <v>1673881.598243377</v>
+        <v>1885462.841634594</v>
       </c>
       <c r="AE14" t="n">
-        <v>2290278.649160882</v>
+        <v>2579773.440674421</v>
       </c>
       <c r="AF14" t="n">
         <v>4.322306803762443e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>42</v>
+        <v>41.93333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2071697.66931124</v>
+        <v>2333563.484231219</v>
       </c>
     </row>
     <row r="15">
@@ -47240,28 +47240,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1680.392014208357</v>
+        <v>1891.973257599574</v>
       </c>
       <c r="AB15" t="n">
-        <v>2299.186487503449</v>
+        <v>2588.681279016988</v>
       </c>
       <c r="AC15" t="n">
-        <v>2079.755356064622</v>
+        <v>2341.621170984601</v>
       </c>
       <c r="AD15" t="n">
-        <v>1680392.014208357</v>
+        <v>1891973.257599574</v>
       </c>
       <c r="AE15" t="n">
-        <v>2299186.487503449</v>
+        <v>2588681.279016988</v>
       </c>
       <c r="AF15" t="n">
         <v>4.322306803762443e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>42</v>
+        <v>41.93333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2079755.356064622</v>
+        <v>2341621.170984601</v>
       </c>
     </row>
   </sheetData>
@@ -47537,28 +47537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8947.268536552599</v>
+        <v>9463.15831193421</v>
       </c>
       <c r="AB2" t="n">
-        <v>12242.04753734146</v>
+        <v>12947.91068746923</v>
       </c>
       <c r="AC2" t="n">
-        <v>11073.68370219876</v>
+        <v>11712.18026396346</v>
       </c>
       <c r="AD2" t="n">
-        <v>8947268.536552599</v>
+        <v>9463158.31193421</v>
       </c>
       <c r="AE2" t="n">
-        <v>12242047.53734146</v>
+        <v>12947910.68746923</v>
       </c>
       <c r="AF2" t="n">
         <v>1.573725500007126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>105</v>
+        <v>104.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>11073683.70219876</v>
+        <v>11712180.26396346</v>
       </c>
     </row>
     <row r="3">
@@ -47643,28 +47643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3568.863241676898</v>
+        <v>3870.621103421094</v>
       </c>
       <c r="AB3" t="n">
-        <v>4883.076134396772</v>
+        <v>5295.954553452509</v>
       </c>
       <c r="AC3" t="n">
-        <v>4417.042201570159</v>
+        <v>4790.5160837897</v>
       </c>
       <c r="AD3" t="n">
-        <v>3568863.241676898</v>
+        <v>3870621.103421094</v>
       </c>
       <c r="AE3" t="n">
-        <v>4883076.134396773</v>
+        <v>5295954.553452509</v>
       </c>
       <c r="AF3" t="n">
         <v>2.730830363149229e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.97083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>4417042.201570159</v>
+        <v>4790516.0837897</v>
       </c>
     </row>
     <row r="4">
@@ -47749,28 +47749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2839.636772060455</v>
+        <v>3102.449318632811</v>
       </c>
       <c r="AB4" t="n">
-        <v>3885.316307466187</v>
+        <v>4244.908028157764</v>
       </c>
       <c r="AC4" t="n">
-        <v>3514.507172157154</v>
+        <v>3839.779963716064</v>
       </c>
       <c r="AD4" t="n">
-        <v>2839636.772060455</v>
+        <v>3102449.318632811</v>
       </c>
       <c r="AE4" t="n">
-        <v>3885316.307466188</v>
+        <v>4244908.028157764</v>
       </c>
       <c r="AF4" t="n">
         <v>3.151381383380903e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.96666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3514507.172157154</v>
+        <v>3839779.963716064</v>
       </c>
     </row>
     <row r="5">
@@ -47855,28 +47855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2553.860610257751</v>
+        <v>2797.234664662969</v>
       </c>
       <c r="AB5" t="n">
-        <v>3494.304755333245</v>
+        <v>3827.29987347599</v>
       </c>
       <c r="AC5" t="n">
-        <v>3160.813213771634</v>
+        <v>3462.027745200407</v>
       </c>
       <c r="AD5" t="n">
-        <v>2553860.610257751</v>
+        <v>2797234.664662969</v>
       </c>
       <c r="AE5" t="n">
-        <v>3494304.755333245</v>
+        <v>3827299.87347599</v>
       </c>
       <c r="AF5" t="n">
         <v>3.369124621893378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.60833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3160813.213771634</v>
+        <v>3462027.745200407</v>
       </c>
     </row>
     <row r="6">
@@ -47961,28 +47961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2389.001864392526</v>
+        <v>2622.639590004784</v>
       </c>
       <c r="AB6" t="n">
-        <v>3268.737746185871</v>
+        <v>3588.411189737576</v>
       </c>
       <c r="AC6" t="n">
-        <v>2956.774003392008</v>
+        <v>3245.938262155622</v>
       </c>
       <c r="AD6" t="n">
-        <v>2389001.864392526</v>
+        <v>2622639.590004784</v>
       </c>
       <c r="AE6" t="n">
-        <v>3268737.746185871</v>
+        <v>3588411.189737576</v>
       </c>
       <c r="AF6" t="n">
         <v>3.506295001389504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.70416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2956774.003392008</v>
+        <v>3245938.262155622</v>
       </c>
     </row>
     <row r="7">
@@ -48067,28 +48067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2285.559193477454</v>
+        <v>2509.494755715532</v>
       </c>
       <c r="AB7" t="n">
-        <v>3127.202920271299</v>
+        <v>3433.601435865212</v>
       </c>
       <c r="AC7" t="n">
-        <v>2828.747062617353</v>
+        <v>3105.90333391599</v>
       </c>
       <c r="AD7" t="n">
-        <v>2285559.193477454</v>
+        <v>2509494.755715532</v>
       </c>
       <c r="AE7" t="n">
-        <v>3127202.920271299</v>
+        <v>3433601.435865212</v>
       </c>
       <c r="AF7" t="n">
         <v>3.598659010505806e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.50833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2828747.062617353</v>
+        <v>3105903.333915989</v>
       </c>
     </row>
     <row r="8">
@@ -48173,28 +48173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2206.705453029943</v>
+        <v>2430.606849849241</v>
       </c>
       <c r="AB8" t="n">
-        <v>3019.3117538095</v>
+        <v>3325.663522770165</v>
       </c>
       <c r="AC8" t="n">
-        <v>2731.152877656468</v>
+        <v>3008.266863754925</v>
       </c>
       <c r="AD8" t="n">
-        <v>2206705.453029943</v>
+        <v>2430606.849849241</v>
       </c>
       <c r="AE8" t="n">
-        <v>3019311.7538095</v>
+        <v>3325663.522770165</v>
       </c>
       <c r="AF8" t="n">
         <v>3.667440719422202e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.65416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2731152.877656468</v>
+        <v>3008266.863754925</v>
       </c>
     </row>
     <row r="9">
@@ -48279,28 +48279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2151.566332798128</v>
+        <v>2365.698246435545</v>
       </c>
       <c r="AB9" t="n">
-        <v>2943.867976941855</v>
+        <v>3236.85270801406</v>
       </c>
       <c r="AC9" t="n">
-        <v>2662.90934896718</v>
+        <v>2927.932028512384</v>
       </c>
       <c r="AD9" t="n">
-        <v>2151566.332798128</v>
+        <v>2365698.246435544</v>
       </c>
       <c r="AE9" t="n">
-        <v>2943867.976941855</v>
+        <v>3236852.70801406</v>
       </c>
       <c r="AF9" t="n">
         <v>3.720500894871992e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.01666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2662909.34896718</v>
+        <v>2927932.028512384</v>
       </c>
     </row>
     <row r="10">
@@ -48385,28 +48385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2095.319920495005</v>
+        <v>2309.417668713641</v>
       </c>
       <c r="AB10" t="n">
-        <v>2866.909154212141</v>
+        <v>3159.847138651093</v>
       </c>
       <c r="AC10" t="n">
-        <v>2593.295368266404</v>
+        <v>2858.275762611427</v>
       </c>
       <c r="AD10" t="n">
-        <v>2095319.920495005</v>
+        <v>2309417.668713641</v>
       </c>
       <c r="AE10" t="n">
-        <v>2866909.154212141</v>
+        <v>3159847.138651093</v>
       </c>
       <c r="AF10" t="n">
         <v>3.764521188578485e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>2593295.368266404</v>
+        <v>2858275.762611427</v>
       </c>
     </row>
     <row r="11">
@@ -48491,28 +48491,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2100.322433660852</v>
+        <v>2324.189665061371</v>
       </c>
       <c r="AB11" t="n">
-        <v>2873.753813420958</v>
+        <v>3180.058835748544</v>
       </c>
       <c r="AC11" t="n">
-        <v>2599.48678280687</v>
+        <v>2876.558483705191</v>
       </c>
       <c r="AD11" t="n">
-        <v>2100322.433660852</v>
+        <v>2324189.665061371</v>
       </c>
       <c r="AE11" t="n">
-        <v>2873753.813420958</v>
+        <v>3180058.835748544</v>
       </c>
       <c r="AF11" t="n">
         <v>3.751550923468537e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.65416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2599486.78280687</v>
+        <v>2876558.483705191</v>
       </c>
     </row>
     <row r="12">
@@ -48597,28 +48597,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2026.618550511979</v>
+        <v>2250.451616493718</v>
       </c>
       <c r="AB12" t="n">
-        <v>2772.908908910831</v>
+        <v>3079.167184605163</v>
       </c>
       <c r="AC12" t="n">
-        <v>2508.266374446477</v>
+        <v>2785.295790144616</v>
       </c>
       <c r="AD12" t="n">
-        <v>2026618.550511979</v>
+        <v>2250451.616493718</v>
       </c>
       <c r="AE12" t="n">
-        <v>2772908.908910831</v>
+        <v>3079167.184605163</v>
       </c>
       <c r="AF12" t="n">
         <v>3.812471865651629e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.95416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2508266.374446477</v>
+        <v>2785295.790144616</v>
       </c>
     </row>
     <row r="13">
@@ -48703,28 +48703,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1995.345861829784</v>
+        <v>2209.510929856124</v>
       </c>
       <c r="AB13" t="n">
-        <v>2730.120236602198</v>
+        <v>3023.150330971983</v>
       </c>
       <c r="AC13" t="n">
-        <v>2469.561392968701</v>
+        <v>2734.625106402041</v>
       </c>
       <c r="AD13" t="n">
-        <v>1995345.861829784</v>
+        <v>2209510.929856124</v>
       </c>
       <c r="AE13" t="n">
-        <v>2730120.236602198</v>
+        <v>3023150.330971983</v>
       </c>
       <c r="AF13" t="n">
         <v>3.834482012504876e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.70833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2469561.392968701</v>
+        <v>2734625.106402041</v>
       </c>
     </row>
     <row r="14">
@@ -48809,28 +48809,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1964.355083131988</v>
+        <v>2178.41866593184</v>
       </c>
       <c r="AB14" t="n">
-        <v>2687.717285971211</v>
+        <v>2980.60852377673</v>
       </c>
       <c r="AC14" t="n">
-        <v>2431.20532043302</v>
+        <v>2696.143429577815</v>
       </c>
       <c r="AD14" t="n">
-        <v>1964355.083131988</v>
+        <v>2178418.66593184</v>
       </c>
       <c r="AE14" t="n">
-        <v>2687717.285971211</v>
+        <v>2980608.52377673</v>
       </c>
       <c r="AF14" t="n">
         <v>3.857671274368118e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.45</v>
       </c>
       <c r="AH14" t="n">
-        <v>2431205.320433021</v>
+        <v>2696143.429577815</v>
       </c>
     </row>
     <row r="15">
@@ -48915,28 +48915,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1939.309246683478</v>
+        <v>2153.37282948333</v>
       </c>
       <c r="AB15" t="n">
-        <v>2653.448467598039</v>
+        <v>2946.339705403559</v>
       </c>
       <c r="AC15" t="n">
-        <v>2400.207069988795</v>
+        <v>2665.145179133591</v>
       </c>
       <c r="AD15" t="n">
-        <v>1939309.246683478</v>
+        <v>2153372.82948333</v>
       </c>
       <c r="AE15" t="n">
-        <v>2653448.467598039</v>
+        <v>2946339.705403559</v>
       </c>
       <c r="AF15" t="n">
         <v>3.874178884508053e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.27083333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2400207.069988796</v>
+        <v>2665145.179133591</v>
       </c>
     </row>
     <row r="16">
@@ -49021,28 +49021,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1912.985776811286</v>
+        <v>2117.38136165574</v>
       </c>
       <c r="AB16" t="n">
-        <v>2617.431534809376</v>
+        <v>2897.094591290352</v>
       </c>
       <c r="AC16" t="n">
-        <v>2367.6275427154</v>
+        <v>2620.599949595397</v>
       </c>
       <c r="AD16" t="n">
-        <v>1912985.776811286</v>
+        <v>2117381.36165574</v>
       </c>
       <c r="AE16" t="n">
-        <v>2617431.534809376</v>
+        <v>2897094.591290352</v>
       </c>
       <c r="AF16" t="n">
         <v>3.889900417974658e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.1</v>
       </c>
       <c r="AH16" t="n">
-        <v>2367627.5427154</v>
+        <v>2620599.949595397</v>
       </c>
     </row>
     <row r="17">
@@ -49127,28 +49127,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1877.512568458243</v>
+        <v>2091.6434710658</v>
       </c>
       <c r="AB17" t="n">
-        <v>2568.895526173239</v>
+        <v>2861.878873909601</v>
       </c>
       <c r="AC17" t="n">
-        <v>2323.723742622781</v>
+        <v>2588.745170855894</v>
       </c>
       <c r="AD17" t="n">
-        <v>1877512.568458243</v>
+        <v>2091643.4710658</v>
       </c>
       <c r="AE17" t="n">
-        <v>2568895.526173239</v>
+        <v>2861878.873909601</v>
       </c>
       <c r="AF17" t="n">
         <v>3.902477644747941e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>42</v>
+        <v>41.9625</v>
       </c>
       <c r="AH17" t="n">
-        <v>2323723.742622781</v>
+        <v>2588745.170855894</v>
       </c>
     </row>
     <row r="18">
@@ -49233,28 +49233,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1847.891346680853</v>
+        <v>2062.02224928841</v>
       </c>
       <c r="AB18" t="n">
-        <v>2528.366463741339</v>
+        <v>2821.3498114777</v>
       </c>
       <c r="AC18" t="n">
-        <v>2287.062717026485</v>
+        <v>2552.084145259598</v>
       </c>
       <c r="AD18" t="n">
-        <v>1847891.346680853</v>
+        <v>2062022.24928841</v>
       </c>
       <c r="AE18" t="n">
-        <v>2528366.463741339</v>
+        <v>2821349.8114777</v>
       </c>
       <c r="AF18" t="n">
         <v>3.924094753264523e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>42</v>
+        <v>41.73333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2287062.717026485</v>
+        <v>2552084.145259598</v>
       </c>
     </row>
     <row r="19">
@@ -49339,28 +49339,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1844.97535461042</v>
+        <v>2059.106257217977</v>
       </c>
       <c r="AB19" t="n">
-        <v>2524.376674746081</v>
+        <v>2817.360022482442</v>
       </c>
       <c r="AC19" t="n">
-        <v>2283.453707893229</v>
+        <v>2548.475136126344</v>
       </c>
       <c r="AD19" t="n">
-        <v>1844975.35461042</v>
+        <v>2059106.257217977</v>
       </c>
       <c r="AE19" t="n">
-        <v>2524376.674746081</v>
+        <v>2817360.022482442</v>
       </c>
       <c r="AF19" t="n">
         <v>3.914268794847895e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>42</v>
+        <v>41.8375</v>
       </c>
       <c r="AH19" t="n">
-        <v>2283453.70789323</v>
+        <v>2548475.136126344</v>
       </c>
     </row>
     <row r="20">
@@ -49445,28 +49445,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1845.767465718523</v>
+        <v>2059.89836832608</v>
       </c>
       <c r="AB20" t="n">
-        <v>2525.460476109664</v>
+        <v>2818.443823846025</v>
       </c>
       <c r="AC20" t="n">
-        <v>2284.434072775798</v>
+        <v>2549.455501008911</v>
       </c>
       <c r="AD20" t="n">
-        <v>1845767.465718523</v>
+        <v>2059898.36832608</v>
       </c>
       <c r="AE20" t="n">
-        <v>2525460.476109664</v>
+        <v>2818443.823846025</v>
       </c>
       <c r="AF20" t="n">
         <v>3.918592216551211e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>42</v>
+        <v>41.79166666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>2284434.072775797</v>
+        <v>2549455.501008911</v>
       </c>
     </row>
     <row r="21">
@@ -49551,28 +49551,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1851.068599279436</v>
+        <v>2065.199501886992</v>
       </c>
       <c r="AB21" t="n">
-        <v>2532.713720917212</v>
+        <v>2825.697068653573</v>
       </c>
       <c r="AC21" t="n">
-        <v>2290.995078078905</v>
+        <v>2556.016506312019</v>
       </c>
       <c r="AD21" t="n">
-        <v>1851068.599279436</v>
+        <v>2065199.501886992</v>
       </c>
       <c r="AE21" t="n">
-        <v>2532713.720917211</v>
+        <v>2825697.068653573</v>
       </c>
       <c r="AF21" t="n">
         <v>3.918592216551211e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>42</v>
+        <v>41.79166666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>2290995.078078906</v>
+        <v>2556016.506312019</v>
       </c>
     </row>
     <row r="22">
@@ -49657,28 +49657,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1857.594753956533</v>
+        <v>2071.725656564091</v>
       </c>
       <c r="AB22" t="n">
-        <v>2541.643093660041</v>
+        <v>2834.626441396402</v>
       </c>
       <c r="AC22" t="n">
-        <v>2299.072244019613</v>
+        <v>2564.093672252726</v>
       </c>
       <c r="AD22" t="n">
-        <v>1857594.753956533</v>
+        <v>2071725.65656409</v>
       </c>
       <c r="AE22" t="n">
-        <v>2541643.093660041</v>
+        <v>2834626.441396402</v>
       </c>
       <c r="AF22" t="n">
         <v>3.918199178214546e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>42</v>
+        <v>41.79583333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>2299072.244019613</v>
+        <v>2564093.672252726</v>
       </c>
     </row>
   </sheetData>
@@ -49954,28 +49954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1085.905603893575</v>
+        <v>1311.613172418223</v>
       </c>
       <c r="AB2" t="n">
-        <v>1485.783954021343</v>
+        <v>1794.607006791923</v>
       </c>
       <c r="AC2" t="n">
-        <v>1343.982818760422</v>
+        <v>1623.332232810454</v>
       </c>
       <c r="AD2" t="n">
-        <v>1085905.603893575</v>
+        <v>1311613.172418223</v>
       </c>
       <c r="AE2" t="n">
-        <v>1485783.954021343</v>
+        <v>1794607.006791923</v>
       </c>
       <c r="AF2" t="n">
         <v>8.168153409617893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.64166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1343982.818760422</v>
+        <v>1623332.232810454</v>
       </c>
     </row>
   </sheetData>
@@ -50251,28 +50251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3211.073634223745</v>
+        <v>3522.59470839424</v>
       </c>
       <c r="AB2" t="n">
-        <v>4393.532608915879</v>
+        <v>4819.76948593581</v>
       </c>
       <c r="AC2" t="n">
-        <v>3974.220023082526</v>
+        <v>4359.777450786873</v>
       </c>
       <c r="AD2" t="n">
-        <v>3211073.634223745</v>
+        <v>3522594.70839424</v>
       </c>
       <c r="AE2" t="n">
-        <v>4393532.608915878</v>
+        <v>4819769.48593581</v>
       </c>
       <c r="AF2" t="n">
         <v>3.319110301657202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3974220.023082526</v>
+        <v>4359777.450786874</v>
       </c>
     </row>
     <row r="3">
@@ -50357,28 +50357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2030.392315680223</v>
+        <v>2275.844789216042</v>
       </c>
       <c r="AB3" t="n">
-        <v>2778.072340900791</v>
+        <v>3113.911243791565</v>
       </c>
       <c r="AC3" t="n">
-        <v>2512.937015734238</v>
+        <v>2816.72392508586</v>
       </c>
       <c r="AD3" t="n">
-        <v>2030392.315680223</v>
+        <v>2275844.789216042</v>
       </c>
       <c r="AE3" t="n">
-        <v>2778072.340900791</v>
+        <v>3113911.243791565</v>
       </c>
       <c r="AF3" t="n">
         <v>4.358768970931189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.69583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2512937.015734238</v>
+        <v>2816723.92508586</v>
       </c>
     </row>
     <row r="4">
@@ -50463,28 +50463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1759.867915439167</v>
+        <v>1986.434173253954</v>
       </c>
       <c r="AB4" t="n">
-        <v>2407.928921796748</v>
+        <v>2717.926871136795</v>
       </c>
       <c r="AC4" t="n">
-        <v>2178.119565049934</v>
+        <v>2458.531745189821</v>
       </c>
       <c r="AD4" t="n">
-        <v>1759867.915439167</v>
+        <v>1986434.173253954</v>
       </c>
       <c r="AE4" t="n">
-        <v>2407928.921796748</v>
+        <v>2717926.871136795</v>
       </c>
       <c r="AF4" t="n">
         <v>4.720050358503899e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.89166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2178119.565049934</v>
+        <v>2458531.745189821</v>
       </c>
     </row>
     <row r="5">
@@ -50569,28 +50569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1635.268844153999</v>
+        <v>1842.949897277615</v>
       </c>
       <c r="AB5" t="n">
-        <v>2237.446975541311</v>
+        <v>2521.605354666466</v>
       </c>
       <c r="AC5" t="n">
-        <v>2023.908176472201</v>
+        <v>2280.946878712441</v>
       </c>
       <c r="AD5" t="n">
-        <v>1635268.844153999</v>
+        <v>1842949.897277615</v>
       </c>
       <c r="AE5" t="n">
-        <v>2237446.975541311</v>
+        <v>2521605.354666466</v>
       </c>
       <c r="AF5" t="n">
         <v>4.901470796292209e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2023908.176472201</v>
+        <v>2280946.878712441</v>
       </c>
     </row>
     <row r="6">
@@ -50675,28 +50675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1544.3910785507</v>
+        <v>1752.037966255534</v>
       </c>
       <c r="AB6" t="n">
-        <v>2113.104007398816</v>
+        <v>2397.215639890724</v>
       </c>
       <c r="AC6" t="n">
-        <v>1911.432326692774</v>
+        <v>2168.428743732834</v>
       </c>
       <c r="AD6" t="n">
-        <v>1544391.0785507</v>
+        <v>1752037.966255534</v>
       </c>
       <c r="AE6" t="n">
-        <v>2113104.007398816</v>
+        <v>2397215.639890724</v>
       </c>
       <c r="AF6" t="n">
         <v>5.016872908581622e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.17083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1911432.326692774</v>
+        <v>2168428.743732834</v>
       </c>
     </row>
     <row r="7">
@@ -50781,28 +50781,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1476.881115948309</v>
+        <v>1684.595323460848</v>
       </c>
       <c r="AB7" t="n">
-        <v>2020.733898236875</v>
+        <v>2304.937640659625</v>
       </c>
       <c r="AC7" t="n">
-        <v>1827.877891106986</v>
+        <v>2084.957627235366</v>
       </c>
       <c r="AD7" t="n">
-        <v>1476881.115948309</v>
+        <v>1684595.323460848</v>
       </c>
       <c r="AE7" t="n">
-        <v>2020733.898236875</v>
+        <v>2304937.640659625</v>
       </c>
       <c r="AF7" t="n">
         <v>5.085490380753704e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.59166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1827877.891106986</v>
+        <v>2084957.627235366</v>
       </c>
     </row>
     <row r="8">
@@ -50887,28 +50887,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1467.233702459836</v>
+        <v>1674.84642474589</v>
       </c>
       <c r="AB8" t="n">
-        <v>2007.533881488102</v>
+        <v>2291.598767346762</v>
       </c>
       <c r="AC8" t="n">
-        <v>1815.937665430376</v>
+        <v>2072.891797270257</v>
       </c>
       <c r="AD8" t="n">
-        <v>1467233.702459836</v>
+        <v>1674846.42474589</v>
       </c>
       <c r="AE8" t="n">
-        <v>2007533.881488102</v>
+        <v>2291598.767346762</v>
       </c>
       <c r="AF8" t="n">
         <v>5.097966284784992e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.48333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1815937.665430376</v>
+        <v>2072891.797270257</v>
       </c>
     </row>
     <row r="9">
@@ -50993,28 +50993,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1472.163320463759</v>
+        <v>1679.776042749813</v>
       </c>
       <c r="AB9" t="n">
-        <v>2014.278802320467</v>
+        <v>2298.343688179126</v>
       </c>
       <c r="AC9" t="n">
-        <v>1822.038860485055</v>
+        <v>2078.992992324936</v>
       </c>
       <c r="AD9" t="n">
-        <v>1472163.320463759</v>
+        <v>1679776.042749813</v>
       </c>
       <c r="AE9" t="n">
-        <v>2014278.802320467</v>
+        <v>2298343.688179126</v>
       </c>
       <c r="AF9" t="n">
         <v>5.102124919462089e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.45416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1822038.860485055</v>
+        <v>2078992.992324936</v>
       </c>
     </row>
   </sheetData>
@@ -51290,28 +51290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4521.631809718563</v>
+        <v>4894.104963670282</v>
       </c>
       <c r="AB2" t="n">
-        <v>6186.696122374122</v>
+        <v>6696.330323966708</v>
       </c>
       <c r="AC2" t="n">
-        <v>5596.246527537045</v>
+        <v>6057.241956205709</v>
       </c>
       <c r="AD2" t="n">
-        <v>4521631.809718563</v>
+        <v>4894104.963670282</v>
       </c>
       <c r="AE2" t="n">
-        <v>6186696.122374122</v>
+        <v>6696330.323966708</v>
       </c>
       <c r="AF2" t="n">
         <v>2.556463151543454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.44166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5596246.527537045</v>
+        <v>6057241.956205709</v>
       </c>
     </row>
     <row r="3">
@@ -51396,28 +51396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2498.6396896276</v>
+        <v>2766.075735946678</v>
       </c>
       <c r="AB3" t="n">
-        <v>3418.749055551985</v>
+        <v>3784.666852571441</v>
       </c>
       <c r="AC3" t="n">
-        <v>3092.46844393441</v>
+        <v>3423.463559975169</v>
       </c>
       <c r="AD3" t="n">
-        <v>2498639.689627599</v>
+        <v>2766075.735946679</v>
       </c>
       <c r="AE3" t="n">
-        <v>3418749.055551985</v>
+        <v>3784666.852571441</v>
       </c>
       <c r="AF3" t="n">
         <v>3.651627340671069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3092468.44393441</v>
+        <v>3423463.559975169</v>
       </c>
     </row>
     <row r="4">
@@ -51502,28 +51502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2116.104996657554</v>
+        <v>2354.91036454805</v>
       </c>
       <c r="AB4" t="n">
-        <v>2895.348212390584</v>
+        <v>3222.092252087829</v>
       </c>
       <c r="AC4" t="n">
-        <v>2619.020242646765</v>
+        <v>2914.580289783323</v>
       </c>
       <c r="AD4" t="n">
-        <v>2116104.996657554</v>
+        <v>2354910.36454805</v>
       </c>
       <c r="AE4" t="n">
-        <v>2895348.212390584</v>
+        <v>3222092.252087829</v>
       </c>
       <c r="AF4" t="n">
         <v>4.032574140185872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.825</v>
       </c>
       <c r="AH4" t="n">
-        <v>2619020.242646765</v>
+        <v>2914580.289783323</v>
       </c>
     </row>
     <row r="5">
@@ -51608,28 +51608,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1944.702545070243</v>
+        <v>2173.952965011614</v>
       </c>
       <c r="AB5" t="n">
-        <v>2660.827816386342</v>
+        <v>2974.498354764856</v>
       </c>
       <c r="AC5" t="n">
-        <v>2406.882144085725</v>
+        <v>2690.616406520759</v>
       </c>
       <c r="AD5" t="n">
-        <v>1944702.545070243</v>
+        <v>2173952.965011614</v>
       </c>
       <c r="AE5" t="n">
-        <v>2660827.816386342</v>
+        <v>2974498.354764856</v>
       </c>
       <c r="AF5" t="n">
         <v>4.230684990966354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.5875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2406882.144085724</v>
+        <v>2690616.406520759</v>
       </c>
     </row>
     <row r="6">
@@ -51714,28 +51714,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1842.557765500673</v>
+        <v>2062.185917685217</v>
       </c>
       <c r="AB6" t="n">
-        <v>2521.068822669622</v>
+        <v>2821.573749798752</v>
       </c>
       <c r="AC6" t="n">
-        <v>2280.461552576348</v>
+        <v>2552.286711221589</v>
       </c>
       <c r="AD6" t="n">
-        <v>1842557.765500673</v>
+        <v>2062185.917685217</v>
       </c>
       <c r="AE6" t="n">
-        <v>2521068.822669622</v>
+        <v>2821573.749798752</v>
       </c>
       <c r="AF6" t="n">
         <v>4.3510327040573e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.32916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2280461.552576348</v>
+        <v>2552286.711221589</v>
       </c>
     </row>
     <row r="7">
@@ -51820,28 +51820,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1766.417893517985</v>
+        <v>1976.626748398673</v>
       </c>
       <c r="AB7" t="n">
-        <v>2416.890890768827</v>
+        <v>2704.507919776753</v>
       </c>
       <c r="AC7" t="n">
-        <v>2186.226216281519</v>
+        <v>2446.393479713964</v>
       </c>
       <c r="AD7" t="n">
-        <v>1766417.893517985</v>
+        <v>1976626.748398673</v>
       </c>
       <c r="AE7" t="n">
-        <v>2416890.890768827</v>
+        <v>2704507.919776753</v>
       </c>
       <c r="AF7" t="n">
         <v>4.43249884830348e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.51250000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>2186226.216281519</v>
+        <v>2446393.479713964</v>
       </c>
     </row>
     <row r="8">
@@ -51926,28 +51926,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1699.357511528562</v>
+        <v>1909.532200990469</v>
       </c>
       <c r="AB8" t="n">
-        <v>2325.135917635644</v>
+        <v>2612.706200010321</v>
       </c>
       <c r="AC8" t="n">
-        <v>2103.228209005254</v>
+        <v>2363.353187237518</v>
       </c>
       <c r="AD8" t="n">
-        <v>1699357.511528562</v>
+        <v>1909532.200990469</v>
       </c>
       <c r="AE8" t="n">
-        <v>2325135.917635644</v>
+        <v>2612706.200010322</v>
       </c>
       <c r="AF8" t="n">
         <v>4.496375711405598e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.89166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2103228.209005254</v>
+        <v>2363353.187237518</v>
       </c>
     </row>
     <row r="9">
@@ -52032,28 +52032,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1660.391022645976</v>
+        <v>1870.565712107883</v>
       </c>
       <c r="AB9" t="n">
-        <v>2271.820248466327</v>
+        <v>2559.390530841005</v>
       </c>
       <c r="AC9" t="n">
-        <v>2055.000912472445</v>
+        <v>2315.12589070471</v>
       </c>
       <c r="AD9" t="n">
-        <v>1660391.022645976</v>
+        <v>1870565.712107884</v>
       </c>
       <c r="AE9" t="n">
-        <v>2271820.248466327</v>
+        <v>2559390.530841005</v>
       </c>
       <c r="AF9" t="n">
         <v>4.528777018776237e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.5875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2055000.912472445</v>
+        <v>2315125.89070471</v>
       </c>
     </row>
     <row r="10">
@@ -52138,28 +52138,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1619.148337123295</v>
+        <v>1829.221541358717</v>
       </c>
       <c r="AB10" t="n">
-        <v>2215.390186635324</v>
+        <v>2502.821612445912</v>
       </c>
       <c r="AC10" t="n">
-        <v>2003.956456542503</v>
+        <v>2263.955830486269</v>
       </c>
       <c r="AD10" t="n">
-        <v>1619148.337123295</v>
+        <v>1829221.541358717</v>
       </c>
       <c r="AE10" t="n">
-        <v>2215390.186635324</v>
+        <v>2502821.612445912</v>
       </c>
       <c r="AF10" t="n">
         <v>4.56441845688394e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.25416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2003956.456542504</v>
+        <v>2263955.830486269</v>
       </c>
     </row>
     <row r="11">
@@ -52244,28 +52244,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1599.018790480955</v>
+        <v>1799.605377604817</v>
       </c>
       <c r="AB11" t="n">
-        <v>2187.848052866353</v>
+        <v>2462.299470624895</v>
       </c>
       <c r="AC11" t="n">
-        <v>1979.042905364816</v>
+        <v>2227.301065007466</v>
       </c>
       <c r="AD11" t="n">
-        <v>1599018.790480956</v>
+        <v>1799605.377604818</v>
       </c>
       <c r="AE11" t="n">
-        <v>2187848.052866353</v>
+        <v>2462299.470624895</v>
       </c>
       <c r="AF11" t="n">
         <v>4.581544862208421e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.09583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1979042.905364816</v>
+        <v>2227301.065007466</v>
       </c>
     </row>
     <row r="12">
@@ -52350,28 +52350,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1603.338049573906</v>
+        <v>1803.924636697768</v>
       </c>
       <c r="AB12" t="n">
-        <v>2193.757853709591</v>
+        <v>2468.209271468132</v>
       </c>
       <c r="AC12" t="n">
-        <v>1984.388683110032</v>
+        <v>2232.646842752683</v>
       </c>
       <c r="AD12" t="n">
-        <v>1603338.049573906</v>
+        <v>1803924.636697768</v>
       </c>
       <c r="AE12" t="n">
-        <v>2193757.853709591</v>
+        <v>2468209.271468132</v>
       </c>
       <c r="AF12" t="n">
         <v>4.581544862208421e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.09583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1984388.683110032</v>
+        <v>2232646.842752683</v>
       </c>
     </row>
   </sheetData>
